--- a/excel_files/demo/insert_multiple_student.xlsx
+++ b/excel_files/demo/insert_multiple_student.xlsx
@@ -366,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -414,9 +414,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -430,10 +427,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -784,19 +787,19 @@
         <v>6</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -805,7 +808,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
@@ -835,7 +838,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
@@ -865,7 +868,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
@@ -895,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
@@ -925,7 +928,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
@@ -955,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
@@ -985,7 +988,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1075,7 +1078,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1105,7 +1108,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1165,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1255,7 +1258,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1285,7 +1288,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="3" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1345,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1405,7 +1408,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="E25" s="24"/>
       <c r="F25" s="3" t="s">
         <v>3</v>
       </c>
@@ -1495,7 +1498,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1525,7 +1528,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,7 +1588,7 @@
         <v>6</v>
       </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1615,7 +1618,7 @@
         <v>6</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="3" t="s">
         <v>3</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,7 +1678,7 @@
         <v>6</v>
       </c>
       <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,7 +1708,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="3" t="s">
         <v>3</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="3" t="s">
         <v>3</v>
       </c>
@@ -1825,7 +1828,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="3" t="s">
         <v>3</v>
       </c>
@@ -1855,7 +1858,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="3" t="s">
         <v>3</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,7 +1918,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
+      <c r="E40" s="24"/>
       <c r="F40" s="3" t="s">
         <v>3</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>6</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
+      <c r="E41" s="24"/>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1975,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2005,7 +2008,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="E43" s="24"/>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>6</v>
       </c>
       <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="E44" s="24"/>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2065,7 +2068,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="E45" s="24"/>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+      <c r="E46" s="24"/>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="E47" s="24"/>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2155,7 +2158,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="E48" s="24"/>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,7 +2188,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+      <c r="E49" s="24"/>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>6</v>
       </c>
       <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
+      <c r="E50" s="24"/>
       <c r="F50" s="3" t="s">
         <v>3</v>
       </c>
@@ -2245,7 +2248,7 @@
         <v>6</v>
       </c>
       <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="E51" s="24"/>
       <c r="F51" s="3" t="s">
         <v>3</v>
       </c>
@@ -2275,7 +2278,7 @@
         <v>6</v>
       </c>
       <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
+      <c r="E52" s="24"/>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2305,7 +2308,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="E53" s="24"/>
       <c r="F53" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,7 +2338,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
+      <c r="E54" s="24"/>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>6</v>
       </c>
       <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+      <c r="E55" s="24"/>
       <c r="F55" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,7 +2398,7 @@
         <v>6</v>
       </c>
       <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="E56" s="24"/>
       <c r="F56" s="3" t="s">
         <v>3</v>
       </c>
@@ -2425,7 +2428,7 @@
         <v>6</v>
       </c>
       <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="E57" s="24"/>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,7 +2458,7 @@
         <v>6</v>
       </c>
       <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
+      <c r="E58" s="24"/>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2485,7 +2488,7 @@
         <v>6</v>
       </c>
       <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
+      <c r="E59" s="24"/>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2515,7 +2518,7 @@
         <v>6</v>
       </c>
       <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
+      <c r="E60" s="24"/>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,7 +2548,7 @@
         <v>6</v>
       </c>
       <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
+      <c r="E61" s="24"/>
       <c r="F61" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>6</v>
       </c>
       <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
+      <c r="E62" s="24"/>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2605,7 +2608,7 @@
         <v>6</v>
       </c>
       <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
+      <c r="E63" s="24"/>
       <c r="F63" s="3" t="s">
         <v>3</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>6</v>
       </c>
       <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
+      <c r="E64" s="24"/>
       <c r="F64" s="3" t="s">
         <v>3</v>
       </c>
@@ -2665,7 +2668,7 @@
         <v>6</v>
       </c>
       <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
+      <c r="E65" s="24"/>
       <c r="F65" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,7 +2698,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
+      <c r="E66" s="24"/>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
+      <c r="E67" s="24"/>
       <c r="F67" s="3" t="s">
         <v>3</v>
       </c>
@@ -2755,7 +2758,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
+      <c r="E68" s="24"/>
       <c r="F68" s="3" t="s">
         <v>3</v>
       </c>
@@ -2785,7 +2788,7 @@
         <v>6</v>
       </c>
       <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
+      <c r="E69" s="24"/>
       <c r="F69" s="3" t="s">
         <v>3</v>
       </c>
@@ -2815,7 +2818,7 @@
         <v>6</v>
       </c>
       <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
+      <c r="E70" s="24"/>
       <c r="F70" s="3" t="s">
         <v>3</v>
       </c>
@@ -2845,7 +2848,7 @@
         <v>6</v>
       </c>
       <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
+      <c r="E71" s="24"/>
       <c r="F71" s="3" t="s">
         <v>3</v>
       </c>
@@ -2875,7 +2878,7 @@
         <v>6</v>
       </c>
       <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
+      <c r="E72" s="24"/>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,7 +2908,7 @@
         <v>6</v>
       </c>
       <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
+      <c r="E73" s="24"/>
       <c r="F73" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>6</v>
       </c>
       <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
+      <c r="E74" s="24"/>
       <c r="F74" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,7 +2968,7 @@
         <v>6</v>
       </c>
       <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
+      <c r="E75" s="24"/>
       <c r="F75" s="3" t="s">
         <v>3</v>
       </c>
@@ -2995,7 +2998,7 @@
         <v>6</v>
       </c>
       <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
+      <c r="E76" s="24"/>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3025,7 +3028,7 @@
         <v>6</v>
       </c>
       <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
+      <c r="E77" s="24"/>
       <c r="F77" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,7 +3058,7 @@
         <v>6</v>
       </c>
       <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
+      <c r="E78" s="24"/>
       <c r="F78" s="3" t="s">
         <v>3</v>
       </c>
@@ -3085,7 +3088,7 @@
         <v>6</v>
       </c>
       <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
+      <c r="E79" s="24"/>
       <c r="F79" s="3" t="s">
         <v>3</v>
       </c>
@@ -3115,7 +3118,7 @@
         <v>6</v>
       </c>
       <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
+      <c r="E80" s="24"/>
       <c r="F80" s="3" t="s">
         <v>3</v>
       </c>
@@ -3145,7 +3148,7 @@
         <v>6</v>
       </c>
       <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
+      <c r="E81" s="24"/>
       <c r="F81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3175,7 +3178,7 @@
         <v>6</v>
       </c>
       <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
+      <c r="E82" s="24"/>
       <c r="F82" s="3" t="s">
         <v>3</v>
       </c>
@@ -3205,7 +3208,7 @@
         <v>6</v>
       </c>
       <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
+      <c r="E83" s="24"/>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3235,7 +3238,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
+      <c r="E84" s="24"/>
       <c r="F84" s="3" t="s">
         <v>3</v>
       </c>
@@ -3265,7 +3268,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
+      <c r="E85" s="24"/>
       <c r="F85" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,7 +3298,7 @@
         <v>6</v>
       </c>
       <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
+      <c r="E86" s="24"/>
       <c r="F86" s="3" t="s">
         <v>3</v>
       </c>
@@ -3325,7 +3328,7 @@
         <v>6</v>
       </c>
       <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
+      <c r="E87" s="24"/>
       <c r="F87" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,7 +3358,7 @@
         <v>6</v>
       </c>
       <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
+      <c r="E88" s="24"/>
       <c r="F88" s="3" t="s">
         <v>3</v>
       </c>
@@ -3385,7 +3388,7 @@
         <v>6</v>
       </c>
       <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
+      <c r="E89" s="24"/>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3415,7 +3418,7 @@
         <v>6</v>
       </c>
       <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
+      <c r="E90" s="24"/>
       <c r="F90" s="3" t="s">
         <v>3</v>
       </c>
@@ -3445,7 +3448,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
+      <c r="E91" s="24"/>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3475,7 +3478,7 @@
         <v>6</v>
       </c>
       <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
+      <c r="E92" s="24"/>
       <c r="F92" s="3" t="s">
         <v>3</v>
       </c>
@@ -3505,7 +3508,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
+      <c r="E93" s="24"/>
       <c r="F93" s="3" t="s">
         <v>3</v>
       </c>
@@ -3535,7 +3538,7 @@
         <v>6</v>
       </c>
       <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
+      <c r="E94" s="24"/>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>6</v>
       </c>
       <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
+      <c r="E95" s="24"/>
       <c r="F95" s="3" t="s">
         <v>3</v>
       </c>
@@ -3595,7 +3598,7 @@
         <v>6</v>
       </c>
       <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
+      <c r="E96" s="24"/>
       <c r="F96" s="3" t="s">
         <v>3</v>
       </c>
@@ -3625,7 +3628,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
+      <c r="E97" s="24"/>
       <c r="F97" s="3" t="s">
         <v>3</v>
       </c>
@@ -3655,7 +3658,7 @@
         <v>6</v>
       </c>
       <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
+      <c r="E98" s="24"/>
       <c r="F98" s="3" t="s">
         <v>3</v>
       </c>
@@ -3685,7 +3688,7 @@
         <v>6</v>
       </c>
       <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
+      <c r="E99" s="24"/>
       <c r="F99" s="3" t="s">
         <v>3</v>
       </c>
@@ -3715,7 +3718,7 @@
         <v>6</v>
       </c>
       <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
+      <c r="E100" s="24"/>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3745,7 +3748,7 @@
         <v>6</v>
       </c>
       <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
+      <c r="E101" s="24"/>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3775,7 +3778,7 @@
         <v>6</v>
       </c>
       <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
+      <c r="E102" s="24"/>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,7 +3808,7 @@
         <v>6</v>
       </c>
       <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
+      <c r="E103" s="24"/>
       <c r="F103" s="3" t="s">
         <v>3</v>
       </c>
@@ -3835,7 +3838,7 @@
         <v>6</v>
       </c>
       <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
+      <c r="E104" s="24"/>
       <c r="F104" s="3" t="s">
         <v>3</v>
       </c>
@@ -3865,7 +3868,7 @@
         <v>6</v>
       </c>
       <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
+      <c r="E105" s="24"/>
       <c r="F105" s="3" t="s">
         <v>3</v>
       </c>
@@ -3895,7 +3898,7 @@
         <v>6</v>
       </c>
       <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
+      <c r="E106" s="24"/>
       <c r="F106" s="3" t="s">
         <v>3</v>
       </c>
@@ -3925,7 +3928,7 @@
         <v>6</v>
       </c>
       <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
+      <c r="E107" s="24"/>
       <c r="F107" s="3" t="s">
         <v>3</v>
       </c>
@@ -3955,7 +3958,7 @@
         <v>6</v>
       </c>
       <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
+      <c r="E108" s="24"/>
       <c r="F108" s="3" t="s">
         <v>3</v>
       </c>
@@ -3985,7 +3988,7 @@
         <v>6</v>
       </c>
       <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
+      <c r="E109" s="24"/>
       <c r="F109" s="3" t="s">
         <v>3</v>
       </c>
@@ -4015,7 +4018,7 @@
         <v>6</v>
       </c>
       <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
+      <c r="E110" s="24"/>
       <c r="F110" s="3" t="s">
         <v>3</v>
       </c>
@@ -4045,7 +4048,7 @@
         <v>6</v>
       </c>
       <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
+      <c r="E111" s="24"/>
       <c r="F111" s="3" t="s">
         <v>3</v>
       </c>
@@ -4075,7 +4078,7 @@
         <v>6</v>
       </c>
       <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
+      <c r="E112" s="24"/>
       <c r="F112" s="3" t="s">
         <v>3</v>
       </c>
@@ -4105,7 +4108,7 @@
         <v>6</v>
       </c>
       <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
+      <c r="E113" s="24"/>
       <c r="F113" s="3" t="s">
         <v>3</v>
       </c>
@@ -4135,7 +4138,7 @@
         <v>6</v>
       </c>
       <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
+      <c r="E114" s="24"/>
       <c r="F114" s="3" t="s">
         <v>3</v>
       </c>
@@ -4165,7 +4168,7 @@
         <v>6</v>
       </c>
       <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
+      <c r="E115" s="24"/>
       <c r="F115" s="3" t="s">
         <v>3</v>
       </c>
@@ -4195,7 +4198,7 @@
         <v>6</v>
       </c>
       <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
+      <c r="E116" s="24"/>
       <c r="F116" s="3" t="s">
         <v>3</v>
       </c>
@@ -4225,7 +4228,7 @@
         <v>6</v>
       </c>
       <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
+      <c r="E117" s="24"/>
       <c r="F117" s="3" t="s">
         <v>3</v>
       </c>
@@ -4255,7 +4258,7 @@
         <v>6</v>
       </c>
       <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
+      <c r="E118" s="24"/>
       <c r="F118" s="3" t="s">
         <v>3</v>
       </c>
@@ -4285,7 +4288,7 @@
         <v>6</v>
       </c>
       <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
+      <c r="E119" s="24"/>
       <c r="F119" s="3" t="s">
         <v>3</v>
       </c>
@@ -4315,7 +4318,7 @@
         <v>6</v>
       </c>
       <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
+      <c r="E120" s="24"/>
       <c r="F120" s="3" t="s">
         <v>3</v>
       </c>
@@ -4345,7 +4348,7 @@
         <v>6</v>
       </c>
       <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
+      <c r="E121" s="24"/>
       <c r="F121" s="3" t="s">
         <v>3</v>
       </c>
@@ -4375,7 +4378,7 @@
         <v>6</v>
       </c>
       <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
+      <c r="E122" s="24"/>
       <c r="F122" s="3" t="s">
         <v>3</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>6</v>
       </c>
       <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
+      <c r="E123" s="24"/>
       <c r="F123" s="3" t="s">
         <v>3</v>
       </c>
@@ -4435,7 +4438,7 @@
         <v>6</v>
       </c>
       <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
+      <c r="E124" s="24"/>
       <c r="F124" s="3" t="s">
         <v>3</v>
       </c>
@@ -4465,7 +4468,7 @@
         <v>6</v>
       </c>
       <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
+      <c r="E125" s="24"/>
       <c r="F125" s="3" t="s">
         <v>3</v>
       </c>
@@ -4495,7 +4498,7 @@
         <v>6</v>
       </c>
       <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
+      <c r="E126" s="24"/>
       <c r="F126" s="3" t="s">
         <v>3</v>
       </c>
@@ -4525,7 +4528,7 @@
         <v>6</v>
       </c>
       <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
+      <c r="E127" s="24"/>
       <c r="F127" s="3" t="s">
         <v>3</v>
       </c>
@@ -4555,7 +4558,7 @@
         <v>6</v>
       </c>
       <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
+      <c r="E128" s="24"/>
       <c r="F128" s="3" t="s">
         <v>3</v>
       </c>
@@ -4585,7 +4588,7 @@
         <v>6</v>
       </c>
       <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
+      <c r="E129" s="24"/>
       <c r="F129" s="3" t="s">
         <v>3</v>
       </c>
@@ -4615,7 +4618,7 @@
         <v>6</v>
       </c>
       <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
+      <c r="E130" s="24"/>
       <c r="F130" s="3" t="s">
         <v>3</v>
       </c>
@@ -4645,7 +4648,7 @@
         <v>6</v>
       </c>
       <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
+      <c r="E131" s="24"/>
       <c r="F131" s="3" t="s">
         <v>3</v>
       </c>
@@ -4675,7 +4678,7 @@
         <v>6</v>
       </c>
       <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
+      <c r="E132" s="24"/>
       <c r="F132" s="3" t="s">
         <v>3</v>
       </c>
@@ -4705,7 +4708,7 @@
         <v>6</v>
       </c>
       <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
+      <c r="E133" s="24"/>
       <c r="F133" s="3" t="s">
         <v>3</v>
       </c>
@@ -4735,7 +4738,7 @@
         <v>6</v>
       </c>
       <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
+      <c r="E134" s="24"/>
       <c r="F134" s="3" t="s">
         <v>3</v>
       </c>
@@ -4765,7 +4768,7 @@
         <v>6</v>
       </c>
       <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
+      <c r="E135" s="24"/>
       <c r="F135" s="3" t="s">
         <v>3</v>
       </c>
@@ -4795,7 +4798,7 @@
         <v>6</v>
       </c>
       <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
+      <c r="E136" s="24"/>
       <c r="F136" s="3" t="s">
         <v>3</v>
       </c>
@@ -4825,7 +4828,7 @@
         <v>6</v>
       </c>
       <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
+      <c r="E137" s="24"/>
       <c r="F137" s="3" t="s">
         <v>3</v>
       </c>
@@ -4855,7 +4858,7 @@
         <v>6</v>
       </c>
       <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
+      <c r="E138" s="24"/>
       <c r="F138" s="3" t="s">
         <v>3</v>
       </c>
@@ -4885,7 +4888,7 @@
         <v>6</v>
       </c>
       <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
+      <c r="E139" s="24"/>
       <c r="F139" s="3" t="s">
         <v>3</v>
       </c>
@@ -4915,7 +4918,7 @@
         <v>6</v>
       </c>
       <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
+      <c r="E140" s="24"/>
       <c r="F140" s="3" t="s">
         <v>3</v>
       </c>
@@ -4945,7 +4948,7 @@
         <v>6</v>
       </c>
       <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
+      <c r="E141" s="24"/>
       <c r="F141" s="3" t="s">
         <v>3</v>
       </c>
@@ -4975,7 +4978,7 @@
         <v>6</v>
       </c>
       <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
+      <c r="E142" s="24"/>
       <c r="F142" s="3" t="s">
         <v>3</v>
       </c>
@@ -5005,7 +5008,7 @@
         <v>6</v>
       </c>
       <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
+      <c r="E143" s="24"/>
       <c r="F143" s="3" t="s">
         <v>3</v>
       </c>
@@ -5035,7 +5038,7 @@
         <v>6</v>
       </c>
       <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
+      <c r="E144" s="24"/>
       <c r="F144" s="3" t="s">
         <v>3</v>
       </c>
@@ -5065,7 +5068,7 @@
         <v>6</v>
       </c>
       <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
+      <c r="E145" s="24"/>
       <c r="F145" s="3" t="s">
         <v>3</v>
       </c>
@@ -5095,7 +5098,7 @@
         <v>6</v>
       </c>
       <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
+      <c r="E146" s="24"/>
       <c r="F146" s="3" t="s">
         <v>3</v>
       </c>
@@ -5125,7 +5128,7 @@
         <v>6</v>
       </c>
       <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
+      <c r="E147" s="24"/>
       <c r="F147" s="3" t="s">
         <v>3</v>
       </c>
@@ -5155,7 +5158,7 @@
         <v>6</v>
       </c>
       <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
+      <c r="E148" s="24"/>
       <c r="F148" s="3" t="s">
         <v>3</v>
       </c>
@@ -5185,7 +5188,7 @@
         <v>6</v>
       </c>
       <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
+      <c r="E149" s="24"/>
       <c r="F149" s="3" t="s">
         <v>3</v>
       </c>
@@ -5215,7 +5218,7 @@
         <v>6</v>
       </c>
       <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
+      <c r="E150" s="24"/>
       <c r="F150" s="3" t="s">
         <v>3</v>
       </c>
@@ -5245,7 +5248,7 @@
         <v>6</v>
       </c>
       <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
+      <c r="E151" s="24"/>
       <c r="F151" s="3" t="s">
         <v>3</v>
       </c>
@@ -5275,7 +5278,7 @@
         <v>6</v>
       </c>
       <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
+      <c r="E152" s="24"/>
       <c r="F152" s="3" t="s">
         <v>3</v>
       </c>
@@ -5305,7 +5308,7 @@
         <v>6</v>
       </c>
       <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
+      <c r="E153" s="24"/>
       <c r="F153" s="3" t="s">
         <v>3</v>
       </c>
@@ -5335,7 +5338,7 @@
         <v>6</v>
       </c>
       <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
+      <c r="E154" s="24"/>
       <c r="F154" s="3" t="s">
         <v>3</v>
       </c>
@@ -5365,7 +5368,7 @@
         <v>6</v>
       </c>
       <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
+      <c r="E155" s="24"/>
       <c r="F155" s="3" t="s">
         <v>3</v>
       </c>
@@ -5395,7 +5398,7 @@
         <v>6</v>
       </c>
       <c r="D156" s="7"/>
-      <c r="E156" s="7"/>
+      <c r="E156" s="24"/>
       <c r="F156" s="3" t="s">
         <v>3</v>
       </c>
@@ -5425,7 +5428,7 @@
         <v>6</v>
       </c>
       <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
+      <c r="E157" s="24"/>
       <c r="F157" s="3" t="s">
         <v>3</v>
       </c>
@@ -5455,7 +5458,7 @@
         <v>6</v>
       </c>
       <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
+      <c r="E158" s="24"/>
       <c r="F158" s="3" t="s">
         <v>3</v>
       </c>
@@ -5485,7 +5488,7 @@
         <v>6</v>
       </c>
       <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
+      <c r="E159" s="24"/>
       <c r="F159" s="3" t="s">
         <v>3</v>
       </c>
@@ -5515,7 +5518,7 @@
         <v>6</v>
       </c>
       <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
+      <c r="E160" s="24"/>
       <c r="F160" s="3" t="s">
         <v>3</v>
       </c>
@@ -5545,7 +5548,7 @@
         <v>6</v>
       </c>
       <c r="D161" s="7"/>
-      <c r="E161" s="7"/>
+      <c r="E161" s="24"/>
       <c r="F161" s="3" t="s">
         <v>3</v>
       </c>
@@ -5575,7 +5578,7 @@
         <v>6</v>
       </c>
       <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
+      <c r="E162" s="24"/>
       <c r="F162" s="3" t="s">
         <v>3</v>
       </c>
@@ -5605,7 +5608,7 @@
         <v>6</v>
       </c>
       <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
+      <c r="E163" s="24"/>
       <c r="F163" s="3" t="s">
         <v>3</v>
       </c>
@@ -5635,7 +5638,7 @@
         <v>6</v>
       </c>
       <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
+      <c r="E164" s="24"/>
       <c r="F164" s="3" t="s">
         <v>3</v>
       </c>
@@ -5665,7 +5668,7 @@
         <v>6</v>
       </c>
       <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
+      <c r="E165" s="24"/>
       <c r="F165" s="3" t="s">
         <v>3</v>
       </c>
@@ -5695,7 +5698,7 @@
         <v>6</v>
       </c>
       <c r="D166" s="7"/>
-      <c r="E166" s="7"/>
+      <c r="E166" s="24"/>
       <c r="F166" s="3" t="s">
         <v>3</v>
       </c>
@@ -5725,7 +5728,7 @@
         <v>6</v>
       </c>
       <c r="D167" s="7"/>
-      <c r="E167" s="7"/>
+      <c r="E167" s="24"/>
       <c r="F167" s="3" t="s">
         <v>3</v>
       </c>
@@ -5755,7 +5758,7 @@
         <v>6</v>
       </c>
       <c r="D168" s="7"/>
-      <c r="E168" s="7"/>
+      <c r="E168" s="24"/>
       <c r="F168" s="3" t="s">
         <v>3</v>
       </c>
@@ -5785,7 +5788,7 @@
         <v>6</v>
       </c>
       <c r="D169" s="7"/>
-      <c r="E169" s="7"/>
+      <c r="E169" s="24"/>
       <c r="F169" s="3" t="s">
         <v>3</v>
       </c>
@@ -5815,7 +5818,7 @@
         <v>6</v>
       </c>
       <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
+      <c r="E170" s="24"/>
       <c r="F170" s="3" t="s">
         <v>3</v>
       </c>
@@ -5845,7 +5848,7 @@
         <v>6</v>
       </c>
       <c r="D171" s="7"/>
-      <c r="E171" s="7"/>
+      <c r="E171" s="24"/>
       <c r="F171" s="3" t="s">
         <v>3</v>
       </c>
@@ -5875,7 +5878,7 @@
         <v>6</v>
       </c>
       <c r="D172" s="7"/>
-      <c r="E172" s="7"/>
+      <c r="E172" s="24"/>
       <c r="F172" s="3" t="s">
         <v>3</v>
       </c>
@@ -5905,7 +5908,7 @@
         <v>6</v>
       </c>
       <c r="D173" s="7"/>
-      <c r="E173" s="7"/>
+      <c r="E173" s="24"/>
       <c r="F173" s="3" t="s">
         <v>3</v>
       </c>
@@ -5935,7 +5938,7 @@
         <v>6</v>
       </c>
       <c r="D174" s="7"/>
-      <c r="E174" s="7"/>
+      <c r="E174" s="24"/>
       <c r="F174" s="3" t="s">
         <v>3</v>
       </c>
@@ -5965,7 +5968,7 @@
         <v>6</v>
       </c>
       <c r="D175" s="7"/>
-      <c r="E175" s="7"/>
+      <c r="E175" s="24"/>
       <c r="F175" s="3" t="s">
         <v>3</v>
       </c>
@@ -5995,7 +5998,7 @@
         <v>6</v>
       </c>
       <c r="D176" s="7"/>
-      <c r="E176" s="7"/>
+      <c r="E176" s="24"/>
       <c r="F176" s="3" t="s">
         <v>3</v>
       </c>
@@ -6025,7 +6028,7 @@
         <v>6</v>
       </c>
       <c r="D177" s="7"/>
-      <c r="E177" s="7"/>
+      <c r="E177" s="24"/>
       <c r="F177" s="3" t="s">
         <v>3</v>
       </c>
@@ -6055,7 +6058,7 @@
         <v>6</v>
       </c>
       <c r="D178" s="7"/>
-      <c r="E178" s="7"/>
+      <c r="E178" s="24"/>
       <c r="F178" s="3" t="s">
         <v>3</v>
       </c>
@@ -6085,7 +6088,7 @@
         <v>6</v>
       </c>
       <c r="D179" s="7"/>
-      <c r="E179" s="7"/>
+      <c r="E179" s="24"/>
       <c r="F179" s="3" t="s">
         <v>3</v>
       </c>
@@ -6115,7 +6118,7 @@
         <v>6</v>
       </c>
       <c r="D180" s="7"/>
-      <c r="E180" s="7"/>
+      <c r="E180" s="24"/>
       <c r="F180" s="3" t="s">
         <v>3</v>
       </c>
@@ -6145,7 +6148,7 @@
         <v>6</v>
       </c>
       <c r="D181" s="7"/>
-      <c r="E181" s="7"/>
+      <c r="E181" s="24"/>
       <c r="F181" s="3" t="s">
         <v>3</v>
       </c>
@@ -6175,7 +6178,7 @@
         <v>6</v>
       </c>
       <c r="D182" s="7"/>
-      <c r="E182" s="7"/>
+      <c r="E182" s="24"/>
       <c r="F182" s="3" t="s">
         <v>3</v>
       </c>
@@ -6205,7 +6208,7 @@
         <v>6</v>
       </c>
       <c r="D183" s="7"/>
-      <c r="E183" s="7"/>
+      <c r="E183" s="24"/>
       <c r="F183" s="3" t="s">
         <v>3</v>
       </c>
@@ -6235,7 +6238,7 @@
         <v>6</v>
       </c>
       <c r="D184" s="7"/>
-      <c r="E184" s="7"/>
+      <c r="E184" s="24"/>
       <c r="F184" s="3" t="s">
         <v>3</v>
       </c>
@@ -6265,7 +6268,7 @@
         <v>6</v>
       </c>
       <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
+      <c r="E185" s="24"/>
       <c r="F185" s="3" t="s">
         <v>3</v>
       </c>
@@ -6295,7 +6298,7 @@
         <v>6</v>
       </c>
       <c r="D186" s="7"/>
-      <c r="E186" s="7"/>
+      <c r="E186" s="24"/>
       <c r="F186" s="3" t="s">
         <v>3</v>
       </c>
@@ -6325,7 +6328,7 @@
         <v>6</v>
       </c>
       <c r="D187" s="7"/>
-      <c r="E187" s="7"/>
+      <c r="E187" s="24"/>
       <c r="F187" s="3" t="s">
         <v>3</v>
       </c>
@@ -6355,7 +6358,7 @@
         <v>6</v>
       </c>
       <c r="D188" s="7"/>
-      <c r="E188" s="7"/>
+      <c r="E188" s="24"/>
       <c r="F188" s="3" t="s">
         <v>3</v>
       </c>
@@ -6385,7 +6388,7 @@
         <v>6</v>
       </c>
       <c r="D189" s="7"/>
-      <c r="E189" s="7"/>
+      <c r="E189" s="24"/>
       <c r="F189" s="3" t="s">
         <v>3</v>
       </c>
@@ -6415,7 +6418,7 @@
         <v>6</v>
       </c>
       <c r="D190" s="7"/>
-      <c r="E190" s="7"/>
+      <c r="E190" s="24"/>
       <c r="F190" s="3" t="s">
         <v>3</v>
       </c>
@@ -6445,7 +6448,7 @@
         <v>6</v>
       </c>
       <c r="D191" s="7"/>
-      <c r="E191" s="7"/>
+      <c r="E191" s="24"/>
       <c r="F191" s="3" t="s">
         <v>3</v>
       </c>
@@ -6475,7 +6478,7 @@
         <v>6</v>
       </c>
       <c r="D192" s="7"/>
-      <c r="E192" s="7"/>
+      <c r="E192" s="24"/>
       <c r="F192" s="3" t="s">
         <v>3</v>
       </c>
@@ -6505,7 +6508,7 @@
         <v>6</v>
       </c>
       <c r="D193" s="7"/>
-      <c r="E193" s="7"/>
+      <c r="E193" s="24"/>
       <c r="F193" s="3" t="s">
         <v>3</v>
       </c>
@@ -6535,7 +6538,7 @@
         <v>6</v>
       </c>
       <c r="D194" s="7"/>
-      <c r="E194" s="7"/>
+      <c r="E194" s="24"/>
       <c r="F194" s="3" t="s">
         <v>3</v>
       </c>
@@ -6565,7 +6568,7 @@
         <v>6</v>
       </c>
       <c r="D195" s="7"/>
-      <c r="E195" s="7"/>
+      <c r="E195" s="24"/>
       <c r="F195" s="3" t="s">
         <v>3</v>
       </c>
@@ -6595,7 +6598,7 @@
         <v>6</v>
       </c>
       <c r="D196" s="7"/>
-      <c r="E196" s="7"/>
+      <c r="E196" s="24"/>
       <c r="F196" s="3" t="s">
         <v>3</v>
       </c>
@@ -6625,7 +6628,7 @@
         <v>6</v>
       </c>
       <c r="D197" s="7"/>
-      <c r="E197" s="7"/>
+      <c r="E197" s="24"/>
       <c r="F197" s="3" t="s">
         <v>3</v>
       </c>
@@ -6655,7 +6658,7 @@
         <v>6</v>
       </c>
       <c r="D198" s="7"/>
-      <c r="E198" s="7"/>
+      <c r="E198" s="24"/>
       <c r="F198" s="3" t="s">
         <v>3</v>
       </c>
@@ -6685,7 +6688,7 @@
         <v>6</v>
       </c>
       <c r="D199" s="7"/>
-      <c r="E199" s="7"/>
+      <c r="E199" s="24"/>
       <c r="F199" s="3" t="s">
         <v>3</v>
       </c>
@@ -6715,7 +6718,7 @@
         <v>6</v>
       </c>
       <c r="D200" s="7"/>
-      <c r="E200" s="7"/>
+      <c r="E200" s="24"/>
       <c r="F200" s="3" t="s">
         <v>3</v>
       </c>
@@ -6745,7 +6748,7 @@
         <v>6</v>
       </c>
       <c r="D201" s="7"/>
-      <c r="E201" s="7"/>
+      <c r="E201" s="24"/>
       <c r="F201" s="3" t="s">
         <v>3</v>
       </c>
@@ -6775,7 +6778,7 @@
         <v>6</v>
       </c>
       <c r="D202" s="7"/>
-      <c r="E202" s="7"/>
+      <c r="E202" s="24"/>
       <c r="F202" s="3" t="s">
         <v>3</v>
       </c>
@@ -6805,7 +6808,7 @@
         <v>6</v>
       </c>
       <c r="D203" s="7"/>
-      <c r="E203" s="7"/>
+      <c r="E203" s="24"/>
       <c r="F203" s="3" t="s">
         <v>3</v>
       </c>
@@ -6835,7 +6838,7 @@
         <v>6</v>
       </c>
       <c r="D204" s="7"/>
-      <c r="E204" s="7"/>
+      <c r="E204" s="24"/>
       <c r="F204" s="3" t="s">
         <v>3</v>
       </c>
@@ -6865,7 +6868,7 @@
         <v>6</v>
       </c>
       <c r="D205" s="7"/>
-      <c r="E205" s="7"/>
+      <c r="E205" s="24"/>
       <c r="F205" s="3" t="s">
         <v>3</v>
       </c>
@@ -6895,7 +6898,7 @@
         <v>6</v>
       </c>
       <c r="D206" s="7"/>
-      <c r="E206" s="7"/>
+      <c r="E206" s="24"/>
       <c r="F206" s="3" t="s">
         <v>3</v>
       </c>
@@ -6925,7 +6928,7 @@
         <v>6</v>
       </c>
       <c r="D207" s="7"/>
-      <c r="E207" s="7"/>
+      <c r="E207" s="24"/>
       <c r="F207" s="3" t="s">
         <v>3</v>
       </c>
@@ -6955,7 +6958,7 @@
         <v>6</v>
       </c>
       <c r="D208" s="7"/>
-      <c r="E208" s="7"/>
+      <c r="E208" s="24"/>
       <c r="F208" s="3" t="s">
         <v>3</v>
       </c>
@@ -6985,7 +6988,7 @@
         <v>6</v>
       </c>
       <c r="D209" s="7"/>
-      <c r="E209" s="7"/>
+      <c r="E209" s="24"/>
       <c r="F209" s="3" t="s">
         <v>3</v>
       </c>
@@ -7015,7 +7018,7 @@
         <v>6</v>
       </c>
       <c r="D210" s="7"/>
-      <c r="E210" s="7"/>
+      <c r="E210" s="24"/>
       <c r="F210" s="3" t="s">
         <v>3</v>
       </c>
@@ -7045,7 +7048,7 @@
         <v>6</v>
       </c>
       <c r="D211" s="7"/>
-      <c r="E211" s="7"/>
+      <c r="E211" s="24"/>
       <c r="F211" s="3" t="s">
         <v>3</v>
       </c>
@@ -7075,7 +7078,7 @@
         <v>6</v>
       </c>
       <c r="D212" s="7"/>
-      <c r="E212" s="7"/>
+      <c r="E212" s="24"/>
       <c r="F212" s="3" t="s">
         <v>3</v>
       </c>
@@ -7105,7 +7108,7 @@
         <v>6</v>
       </c>
       <c r="D213" s="7"/>
-      <c r="E213" s="7"/>
+      <c r="E213" s="24"/>
       <c r="F213" s="3" t="s">
         <v>3</v>
       </c>
@@ -7135,7 +7138,7 @@
         <v>6</v>
       </c>
       <c r="D214" s="7"/>
-      <c r="E214" s="7"/>
+      <c r="E214" s="24"/>
       <c r="F214" s="3" t="s">
         <v>3</v>
       </c>
@@ -7165,7 +7168,7 @@
         <v>6</v>
       </c>
       <c r="D215" s="7"/>
-      <c r="E215" s="7"/>
+      <c r="E215" s="24"/>
       <c r="F215" s="3" t="s">
         <v>3</v>
       </c>
@@ -7195,7 +7198,7 @@
         <v>6</v>
       </c>
       <c r="D216" s="7"/>
-      <c r="E216" s="7"/>
+      <c r="E216" s="24"/>
       <c r="F216" s="3" t="s">
         <v>3</v>
       </c>
@@ -7225,7 +7228,7 @@
         <v>6</v>
       </c>
       <c r="D217" s="7"/>
-      <c r="E217" s="7"/>
+      <c r="E217" s="24"/>
       <c r="F217" s="3" t="s">
         <v>3</v>
       </c>
@@ -7255,7 +7258,7 @@
         <v>6</v>
       </c>
       <c r="D218" s="7"/>
-      <c r="E218" s="7"/>
+      <c r="E218" s="24"/>
       <c r="F218" s="3" t="s">
         <v>3</v>
       </c>
@@ -7285,7 +7288,7 @@
         <v>6</v>
       </c>
       <c r="D219" s="7"/>
-      <c r="E219" s="7"/>
+      <c r="E219" s="24"/>
       <c r="F219" s="3" t="s">
         <v>3</v>
       </c>
@@ -7315,7 +7318,7 @@
         <v>6</v>
       </c>
       <c r="D220" s="7"/>
-      <c r="E220" s="7"/>
+      <c r="E220" s="24"/>
       <c r="F220" s="3" t="s">
         <v>3</v>
       </c>
@@ -7345,7 +7348,7 @@
         <v>6</v>
       </c>
       <c r="D221" s="7"/>
-      <c r="E221" s="7"/>
+      <c r="E221" s="24"/>
       <c r="F221" s="3" t="s">
         <v>3</v>
       </c>
@@ -7375,7 +7378,7 @@
         <v>6</v>
       </c>
       <c r="D222" s="7"/>
-      <c r="E222" s="7"/>
+      <c r="E222" s="24"/>
       <c r="F222" s="3" t="s">
         <v>3</v>
       </c>
@@ -7405,7 +7408,7 @@
         <v>6</v>
       </c>
       <c r="D223" s="7"/>
-      <c r="E223" s="7"/>
+      <c r="E223" s="24"/>
       <c r="F223" s="3" t="s">
         <v>3</v>
       </c>
@@ -7435,7 +7438,7 @@
         <v>6</v>
       </c>
       <c r="D224" s="7"/>
-      <c r="E224" s="7"/>
+      <c r="E224" s="24"/>
       <c r="F224" s="3" t="s">
         <v>3</v>
       </c>
@@ -7465,7 +7468,7 @@
         <v>6</v>
       </c>
       <c r="D225" s="7"/>
-      <c r="E225" s="7"/>
+      <c r="E225" s="24"/>
       <c r="F225" s="3" t="s">
         <v>3</v>
       </c>
@@ -7495,7 +7498,7 @@
         <v>6</v>
       </c>
       <c r="D226" s="7"/>
-      <c r="E226" s="7"/>
+      <c r="E226" s="24"/>
       <c r="F226" s="3" t="s">
         <v>3</v>
       </c>
@@ -7525,7 +7528,7 @@
         <v>6</v>
       </c>
       <c r="D227" s="7"/>
-      <c r="E227" s="7"/>
+      <c r="E227" s="24"/>
       <c r="F227" s="3" t="s">
         <v>3</v>
       </c>
@@ -7555,7 +7558,7 @@
         <v>6</v>
       </c>
       <c r="D228" s="7"/>
-      <c r="E228" s="7"/>
+      <c r="E228" s="24"/>
       <c r="F228" s="3" t="s">
         <v>3</v>
       </c>
@@ -7585,7 +7588,7 @@
         <v>6</v>
       </c>
       <c r="D229" s="7"/>
-      <c r="E229" s="7"/>
+      <c r="E229" s="24"/>
       <c r="F229" s="3" t="s">
         <v>3</v>
       </c>
@@ -7615,7 +7618,7 @@
         <v>6</v>
       </c>
       <c r="D230" s="7"/>
-      <c r="E230" s="7"/>
+      <c r="E230" s="24"/>
       <c r="F230" s="3" t="s">
         <v>3</v>
       </c>
@@ -7645,7 +7648,7 @@
         <v>6</v>
       </c>
       <c r="D231" s="7"/>
-      <c r="E231" s="7"/>
+      <c r="E231" s="24"/>
       <c r="F231" s="3" t="s">
         <v>3</v>
       </c>
@@ -7675,7 +7678,7 @@
         <v>6</v>
       </c>
       <c r="D232" s="7"/>
-      <c r="E232" s="7"/>
+      <c r="E232" s="24"/>
       <c r="F232" s="3" t="s">
         <v>3</v>
       </c>
@@ -7705,7 +7708,7 @@
         <v>6</v>
       </c>
       <c r="D233" s="7"/>
-      <c r="E233" s="7"/>
+      <c r="E233" s="24"/>
       <c r="F233" s="3" t="s">
         <v>3</v>
       </c>
@@ -7735,7 +7738,7 @@
         <v>6</v>
       </c>
       <c r="D234" s="7"/>
-      <c r="E234" s="7"/>
+      <c r="E234" s="24"/>
       <c r="F234" s="3" t="s">
         <v>3</v>
       </c>
@@ -7765,7 +7768,7 @@
         <v>6</v>
       </c>
       <c r="D235" s="7"/>
-      <c r="E235" s="7"/>
+      <c r="E235" s="24"/>
       <c r="F235" s="3" t="s">
         <v>3</v>
       </c>
@@ -7795,7 +7798,7 @@
         <v>6</v>
       </c>
       <c r="D236" s="7"/>
-      <c r="E236" s="7"/>
+      <c r="E236" s="24"/>
       <c r="F236" s="3" t="s">
         <v>3</v>
       </c>
@@ -7825,7 +7828,7 @@
         <v>6</v>
       </c>
       <c r="D237" s="7"/>
-      <c r="E237" s="7"/>
+      <c r="E237" s="24"/>
       <c r="F237" s="3" t="s">
         <v>3</v>
       </c>
@@ -7855,7 +7858,7 @@
         <v>6</v>
       </c>
       <c r="D238" s="7"/>
-      <c r="E238" s="7"/>
+      <c r="E238" s="24"/>
       <c r="F238" s="3" t="s">
         <v>3</v>
       </c>
@@ -7885,7 +7888,7 @@
         <v>6</v>
       </c>
       <c r="D239" s="7"/>
-      <c r="E239" s="7"/>
+      <c r="E239" s="24"/>
       <c r="F239" s="3" t="s">
         <v>3</v>
       </c>
@@ -7915,7 +7918,7 @@
         <v>6</v>
       </c>
       <c r="D240" s="7"/>
-      <c r="E240" s="7"/>
+      <c r="E240" s="24"/>
       <c r="F240" s="3" t="s">
         <v>3</v>
       </c>
@@ -7945,7 +7948,7 @@
         <v>6</v>
       </c>
       <c r="D241" s="7"/>
-      <c r="E241" s="7"/>
+      <c r="E241" s="24"/>
       <c r="F241" s="3" t="s">
         <v>3</v>
       </c>
@@ -7975,7 +7978,7 @@
         <v>6</v>
       </c>
       <c r="D242" s="7"/>
-      <c r="E242" s="7"/>
+      <c r="E242" s="24"/>
       <c r="F242" s="3" t="s">
         <v>3</v>
       </c>
@@ -8005,7 +8008,7 @@
         <v>6</v>
       </c>
       <c r="D243" s="7"/>
-      <c r="E243" s="7"/>
+      <c r="E243" s="24"/>
       <c r="F243" s="3" t="s">
         <v>3</v>
       </c>
@@ -8035,7 +8038,7 @@
         <v>6</v>
       </c>
       <c r="D244" s="7"/>
-      <c r="E244" s="7"/>
+      <c r="E244" s="24"/>
       <c r="F244" s="3" t="s">
         <v>3</v>
       </c>
@@ -8065,7 +8068,7 @@
         <v>6</v>
       </c>
       <c r="D245" s="7"/>
-      <c r="E245" s="7"/>
+      <c r="E245" s="24"/>
       <c r="F245" s="3" t="s">
         <v>3</v>
       </c>
@@ -8095,7 +8098,7 @@
         <v>6</v>
       </c>
       <c r="D246" s="7"/>
-      <c r="E246" s="7"/>
+      <c r="E246" s="24"/>
       <c r="F246" s="3" t="s">
         <v>3</v>
       </c>
@@ -8125,7 +8128,7 @@
         <v>6</v>
       </c>
       <c r="D247" s="7"/>
-      <c r="E247" s="7"/>
+      <c r="E247" s="24"/>
       <c r="F247" s="3" t="s">
         <v>3</v>
       </c>
@@ -8155,7 +8158,7 @@
         <v>6</v>
       </c>
       <c r="D248" s="7"/>
-      <c r="E248" s="7"/>
+      <c r="E248" s="24"/>
       <c r="F248" s="3" t="s">
         <v>3</v>
       </c>
@@ -8185,7 +8188,7 @@
         <v>6</v>
       </c>
       <c r="D249" s="7"/>
-      <c r="E249" s="7"/>
+      <c r="E249" s="24"/>
       <c r="F249" s="3" t="s">
         <v>3</v>
       </c>
@@ -8215,7 +8218,7 @@
         <v>6</v>
       </c>
       <c r="D250" s="7"/>
-      <c r="E250" s="7"/>
+      <c r="E250" s="24"/>
       <c r="F250" s="3" t="s">
         <v>3</v>
       </c>
@@ -8245,7 +8248,7 @@
         <v>6</v>
       </c>
       <c r="D251" s="7"/>
-      <c r="E251" s="7"/>
+      <c r="E251" s="24"/>
       <c r="F251" s="3" t="s">
         <v>3</v>
       </c>
@@ -8275,7 +8278,7 @@
         <v>6</v>
       </c>
       <c r="D252" s="7"/>
-      <c r="E252" s="7"/>
+      <c r="E252" s="24"/>
       <c r="F252" s="3" t="s">
         <v>3</v>
       </c>
@@ -8305,7 +8308,7 @@
         <v>6</v>
       </c>
       <c r="D253" s="7"/>
-      <c r="E253" s="7"/>
+      <c r="E253" s="24"/>
       <c r="F253" s="3" t="s">
         <v>3</v>
       </c>
@@ -8335,7 +8338,7 @@
         <v>6</v>
       </c>
       <c r="D254" s="7"/>
-      <c r="E254" s="7"/>
+      <c r="E254" s="24"/>
       <c r="F254" s="3" t="s">
         <v>3</v>
       </c>
@@ -8365,7 +8368,7 @@
         <v>6</v>
       </c>
       <c r="D255" s="7"/>
-      <c r="E255" s="7"/>
+      <c r="E255" s="24"/>
       <c r="F255" s="3" t="s">
         <v>3</v>
       </c>
@@ -8395,7 +8398,7 @@
         <v>6</v>
       </c>
       <c r="D256" s="7"/>
-      <c r="E256" s="7"/>
+      <c r="E256" s="24"/>
       <c r="F256" s="3" t="s">
         <v>3</v>
       </c>
@@ -8425,7 +8428,7 @@
         <v>6</v>
       </c>
       <c r="D257" s="7"/>
-      <c r="E257" s="7"/>
+      <c r="E257" s="24"/>
       <c r="F257" s="3" t="s">
         <v>3</v>
       </c>
@@ -8455,7 +8458,7 @@
         <v>6</v>
       </c>
       <c r="D258" s="7"/>
-      <c r="E258" s="7"/>
+      <c r="E258" s="24"/>
       <c r="F258" s="3" t="s">
         <v>3</v>
       </c>
@@ -8485,7 +8488,7 @@
         <v>6</v>
       </c>
       <c r="D259" s="7"/>
-      <c r="E259" s="7"/>
+      <c r="E259" s="24"/>
       <c r="F259" s="3" t="s">
         <v>3</v>
       </c>
@@ -8515,7 +8518,7 @@
         <v>6</v>
       </c>
       <c r="D260" s="7"/>
-      <c r="E260" s="7"/>
+      <c r="E260" s="24"/>
       <c r="F260" s="3" t="s">
         <v>3</v>
       </c>
@@ -8545,7 +8548,7 @@
         <v>6</v>
       </c>
       <c r="D261" s="7"/>
-      <c r="E261" s="7"/>
+      <c r="E261" s="24"/>
       <c r="F261" s="3" t="s">
         <v>3</v>
       </c>
@@ -8575,7 +8578,7 @@
         <v>6</v>
       </c>
       <c r="D262" s="7"/>
-      <c r="E262" s="7"/>
+      <c r="E262" s="24"/>
       <c r="F262" s="3" t="s">
         <v>3</v>
       </c>
@@ -8605,7 +8608,7 @@
         <v>6</v>
       </c>
       <c r="D263" s="7"/>
-      <c r="E263" s="7"/>
+      <c r="E263" s="24"/>
       <c r="F263" s="3" t="s">
         <v>3</v>
       </c>
@@ -8635,7 +8638,7 @@
         <v>6</v>
       </c>
       <c r="D264" s="7"/>
-      <c r="E264" s="7"/>
+      <c r="E264" s="24"/>
       <c r="F264" s="3" t="s">
         <v>3</v>
       </c>
@@ -8665,7 +8668,7 @@
         <v>6</v>
       </c>
       <c r="D265" s="7"/>
-      <c r="E265" s="7"/>
+      <c r="E265" s="24"/>
       <c r="F265" s="3" t="s">
         <v>3</v>
       </c>
@@ -8695,7 +8698,7 @@
         <v>6</v>
       </c>
       <c r="D266" s="7"/>
-      <c r="E266" s="7"/>
+      <c r="E266" s="24"/>
       <c r="F266" s="3" t="s">
         <v>3</v>
       </c>
@@ -8725,7 +8728,7 @@
         <v>6</v>
       </c>
       <c r="D267" s="7"/>
-      <c r="E267" s="7"/>
+      <c r="E267" s="24"/>
       <c r="F267" s="3" t="s">
         <v>3</v>
       </c>
@@ -8755,7 +8758,7 @@
         <v>6</v>
       </c>
       <c r="D268" s="7"/>
-      <c r="E268" s="7"/>
+      <c r="E268" s="24"/>
       <c r="F268" s="3" t="s">
         <v>3</v>
       </c>
@@ -8785,7 +8788,7 @@
         <v>6</v>
       </c>
       <c r="D269" s="7"/>
-      <c r="E269" s="7"/>
+      <c r="E269" s="24"/>
       <c r="F269" s="3" t="s">
         <v>3</v>
       </c>
@@ -8815,7 +8818,7 @@
         <v>6</v>
       </c>
       <c r="D270" s="7"/>
-      <c r="E270" s="7"/>
+      <c r="E270" s="24"/>
       <c r="F270" s="3" t="s">
         <v>3</v>
       </c>
@@ -8845,7 +8848,7 @@
         <v>6</v>
       </c>
       <c r="D271" s="7"/>
-      <c r="E271" s="7"/>
+      <c r="E271" s="24"/>
       <c r="F271" s="3" t="s">
         <v>3</v>
       </c>
@@ -8875,7 +8878,7 @@
         <v>6</v>
       </c>
       <c r="D272" s="7"/>
-      <c r="E272" s="7"/>
+      <c r="E272" s="24"/>
       <c r="F272" s="3" t="s">
         <v>3</v>
       </c>
@@ -8905,7 +8908,7 @@
         <v>6</v>
       </c>
       <c r="D273" s="7"/>
-      <c r="E273" s="7"/>
+      <c r="E273" s="24"/>
       <c r="F273" s="3" t="s">
         <v>3</v>
       </c>
@@ -8935,7 +8938,7 @@
         <v>6</v>
       </c>
       <c r="D274" s="7"/>
-      <c r="E274" s="7"/>
+      <c r="E274" s="24"/>
       <c r="F274" s="3" t="s">
         <v>3</v>
       </c>
@@ -8965,7 +8968,7 @@
         <v>6</v>
       </c>
       <c r="D275" s="7"/>
-      <c r="E275" s="7"/>
+      <c r="E275" s="24"/>
       <c r="F275" s="3" t="s">
         <v>3</v>
       </c>
@@ -8995,7 +8998,7 @@
         <v>6</v>
       </c>
       <c r="D276" s="7"/>
-      <c r="E276" s="7"/>
+      <c r="E276" s="24"/>
       <c r="F276" s="3" t="s">
         <v>3</v>
       </c>
@@ -9025,7 +9028,7 @@
         <v>6</v>
       </c>
       <c r="D277" s="7"/>
-      <c r="E277" s="7"/>
+      <c r="E277" s="24"/>
       <c r="F277" s="3" t="s">
         <v>3</v>
       </c>
@@ -9055,7 +9058,7 @@
         <v>6</v>
       </c>
       <c r="D278" s="7"/>
-      <c r="E278" s="7"/>
+      <c r="E278" s="24"/>
       <c r="F278" s="3" t="s">
         <v>3</v>
       </c>
@@ -9085,7 +9088,7 @@
         <v>6</v>
       </c>
       <c r="D279" s="7"/>
-      <c r="E279" s="7"/>
+      <c r="E279" s="24"/>
       <c r="F279" s="3" t="s">
         <v>3</v>
       </c>
@@ -9115,7 +9118,7 @@
         <v>6</v>
       </c>
       <c r="D280" s="7"/>
-      <c r="E280" s="7"/>
+      <c r="E280" s="24"/>
       <c r="F280" s="3" t="s">
         <v>3</v>
       </c>
@@ -9145,7 +9148,7 @@
         <v>6</v>
       </c>
       <c r="D281" s="7"/>
-      <c r="E281" s="7"/>
+      <c r="E281" s="24"/>
       <c r="F281" s="3" t="s">
         <v>3</v>
       </c>
@@ -9175,7 +9178,7 @@
         <v>6</v>
       </c>
       <c r="D282" s="7"/>
-      <c r="E282" s="7"/>
+      <c r="E282" s="24"/>
       <c r="F282" s="3" t="s">
         <v>3</v>
       </c>
@@ -9205,7 +9208,7 @@
         <v>6</v>
       </c>
       <c r="D283" s="7"/>
-      <c r="E283" s="7"/>
+      <c r="E283" s="24"/>
       <c r="F283" s="3" t="s">
         <v>3</v>
       </c>
@@ -9235,7 +9238,7 @@
         <v>6</v>
       </c>
       <c r="D284" s="7"/>
-      <c r="E284" s="7"/>
+      <c r="E284" s="24"/>
       <c r="F284" s="3" t="s">
         <v>3</v>
       </c>
@@ -9265,7 +9268,7 @@
         <v>6</v>
       </c>
       <c r="D285" s="7"/>
-      <c r="E285" s="7"/>
+      <c r="E285" s="24"/>
       <c r="F285" s="3" t="s">
         <v>3</v>
       </c>
@@ -9295,7 +9298,7 @@
         <v>6</v>
       </c>
       <c r="D286" s="7"/>
-      <c r="E286" s="7"/>
+      <c r="E286" s="24"/>
       <c r="F286" s="3" t="s">
         <v>3</v>
       </c>
@@ -9325,7 +9328,7 @@
         <v>6</v>
       </c>
       <c r="D287" s="7"/>
-      <c r="E287" s="7"/>
+      <c r="E287" s="24"/>
       <c r="F287" s="3" t="s">
         <v>3</v>
       </c>
@@ -9355,7 +9358,7 @@
         <v>6</v>
       </c>
       <c r="D288" s="7"/>
-      <c r="E288" s="7"/>
+      <c r="E288" s="24"/>
       <c r="F288" s="3" t="s">
         <v>3</v>
       </c>
@@ -9385,7 +9388,7 @@
         <v>6</v>
       </c>
       <c r="D289" s="7"/>
-      <c r="E289" s="7"/>
+      <c r="E289" s="24"/>
       <c r="F289" s="3" t="s">
         <v>3</v>
       </c>
@@ -9415,7 +9418,7 @@
         <v>6</v>
       </c>
       <c r="D290" s="7"/>
-      <c r="E290" s="7"/>
+      <c r="E290" s="24"/>
       <c r="F290" s="3" t="s">
         <v>3</v>
       </c>
@@ -9445,7 +9448,7 @@
         <v>6</v>
       </c>
       <c r="D291" s="7"/>
-      <c r="E291" s="7"/>
+      <c r="E291" s="24"/>
       <c r="F291" s="3" t="s">
         <v>3</v>
       </c>
@@ -9475,7 +9478,7 @@
         <v>6</v>
       </c>
       <c r="D292" s="7"/>
-      <c r="E292" s="7"/>
+      <c r="E292" s="24"/>
       <c r="F292" s="3" t="s">
         <v>3</v>
       </c>
@@ -9505,7 +9508,7 @@
         <v>6</v>
       </c>
       <c r="D293" s="7"/>
-      <c r="E293" s="7"/>
+      <c r="E293" s="24"/>
       <c r="F293" s="3" t="s">
         <v>3</v>
       </c>
@@ -9535,7 +9538,7 @@
         <v>6</v>
       </c>
       <c r="D294" s="7"/>
-      <c r="E294" s="7"/>
+      <c r="E294" s="24"/>
       <c r="F294" s="3" t="s">
         <v>3</v>
       </c>
@@ -9565,7 +9568,7 @@
         <v>6</v>
       </c>
       <c r="D295" s="7"/>
-      <c r="E295" s="7"/>
+      <c r="E295" s="24"/>
       <c r="F295" s="3" t="s">
         <v>3</v>
       </c>
@@ -9595,7 +9598,7 @@
         <v>6</v>
       </c>
       <c r="D296" s="7"/>
-      <c r="E296" s="7"/>
+      <c r="E296" s="24"/>
       <c r="F296" s="3" t="s">
         <v>3</v>
       </c>
@@ -9625,7 +9628,7 @@
         <v>6</v>
       </c>
       <c r="D297" s="7"/>
-      <c r="E297" s="7"/>
+      <c r="E297" s="24"/>
       <c r="F297" s="3" t="s">
         <v>3</v>
       </c>
@@ -9655,7 +9658,7 @@
         <v>6</v>
       </c>
       <c r="D298" s="7"/>
-      <c r="E298" s="7"/>
+      <c r="E298" s="24"/>
       <c r="F298" s="3" t="s">
         <v>3</v>
       </c>
@@ -9685,7 +9688,7 @@
         <v>6</v>
       </c>
       <c r="D299" s="7"/>
-      <c r="E299" s="7"/>
+      <c r="E299" s="24"/>
       <c r="F299" s="3" t="s">
         <v>3</v>
       </c>
@@ -9715,7 +9718,7 @@
         <v>6</v>
       </c>
       <c r="D300" s="7"/>
-      <c r="E300" s="7"/>
+      <c r="E300" s="24"/>
       <c r="F300" s="3" t="s">
         <v>3</v>
       </c>
@@ -9739,14 +9742,14 @@
       </c>
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A301" s="18"/>
-      <c r="B301" s="19"/>
-      <c r="C301" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D301" s="21"/>
-      <c r="E301" s="23"/>
-      <c r="F301" s="24" t="s">
+      <c r="A301" s="17"/>
+      <c r="B301" s="18"/>
+      <c r="C301" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301" s="20"/>
+      <c r="E301" s="25"/>
+      <c r="F301" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G301" s="6" t="s">
@@ -9769,11 +9772,11 @@
       </c>
     </row>
     <row r="302" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B302" s="20"/>
-      <c r="C302" s="20"/>
-      <c r="E302" s="20"/>
-      <c r="F302" s="20"/>
-      <c r="G302" s="20"/>
+      <c r="B302" s="19"/>
+      <c r="C302" s="19"/>
+      <c r="E302" s="19"/>
+      <c r="F302" s="19"/>
+      <c r="G302" s="19"/>
       <c r="I302" s="1" t="s">
         <v>0</v>
       </c>

--- a/excel_files/demo/insert_multiple_student.xlsx
+++ b/excel_files/demo/insert_multiple_student.xlsx
@@ -366,12 +366,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -414,9 +411,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -430,13 +424,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -757,41 +760,41 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="12" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" s="11" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="23" t="s">
@@ -802,17 +805,17 @@
       <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -832,17 +835,17 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -862,17 +865,17 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -892,17 +895,17 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -922,17 +925,17 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -952,17 +955,17 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -982,17 +985,17 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -1012,17 +1015,17 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1042,17 +1045,17 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1072,17 +1075,17 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1102,17 +1105,17 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -1132,17 +1135,17 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1162,17 +1165,17 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -1192,17 +1195,17 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1222,17 +1225,17 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -1252,17 +1255,17 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -1282,17 +1285,17 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -1312,17 +1315,17 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -1342,17 +1345,17 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -1372,17 +1375,17 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -1402,17 +1405,17 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -1432,17 +1435,17 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -1462,17 +1465,17 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -1492,17 +1495,17 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -1522,17 +1525,17 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -1552,17 +1555,17 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -1582,17 +1585,17 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -1612,17 +1615,17 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="4" t="s">
+      <c r="A30" s="25"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -1642,17 +1645,17 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="A31" s="25"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -1672,17 +1675,17 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="4" t="s">
+      <c r="A32" s="25"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -1702,17 +1705,17 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -1732,17 +1735,17 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" s="4" t="s">
+      <c r="A34" s="25"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -1762,17 +1765,17 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -1792,17 +1795,17 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="4" t="s">
+      <c r="A36" s="25"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -1822,17 +1825,17 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="A37" s="25"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -1852,17 +1855,17 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="4" t="s">
+      <c r="A38" s="25"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -1882,17 +1885,17 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" s="4" t="s">
+      <c r="A39" s="25"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -1912,17 +1915,17 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" s="4" t="s">
+      <c r="A40" s="25"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I40" s="1" t="s">
@@ -1942,17 +1945,17 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="4" t="s">
+      <c r="A41" s="25"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -1972,17 +1975,17 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="4" t="s">
+      <c r="A42" s="25"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I42" s="1" t="s">
@@ -2002,17 +2005,17 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="4" t="s">
+      <c r="A43" s="25"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I43" s="1" t="s">
@@ -2032,17 +2035,17 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="4" t="s">
+      <c r="A44" s="25"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I44" s="1" t="s">
@@ -2062,17 +2065,17 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="4" t="s">
+      <c r="A45" s="25"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -2092,17 +2095,17 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="4" t="s">
+      <c r="A46" s="25"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I46" s="1" t="s">
@@ -2122,17 +2125,17 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="4" t="s">
+      <c r="A47" s="25"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I47" s="1" t="s">
@@ -2152,17 +2155,17 @@
       </c>
     </row>
     <row r="48" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="4" t="s">
+      <c r="A48" s="25"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I48" s="1" t="s">
@@ -2182,17 +2185,17 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="4" t="s">
+      <c r="A49" s="25"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I49" s="1" t="s">
@@ -2212,17 +2215,17 @@
       </c>
     </row>
     <row r="50" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" s="6" t="s">
+      <c r="A50" s="25"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I50" s="1" t="s">
@@ -2242,17 +2245,17 @@
       </c>
     </row>
     <row r="51" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G51" s="6" t="s">
+      <c r="A51" s="25"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I51" s="1" t="s">
@@ -2272,17 +2275,17 @@
       </c>
     </row>
     <row r="52" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="6" t="s">
+      <c r="A52" s="25"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I52" s="1" t="s">
@@ -2302,17 +2305,17 @@
       </c>
     </row>
     <row r="53" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" s="6" t="s">
+      <c r="A53" s="25"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I53" s="1" t="s">
@@ -2332,17 +2335,17 @@
       </c>
     </row>
     <row r="54" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="6" t="s">
+      <c r="A54" s="25"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I54" s="1" t="s">
@@ -2362,17 +2365,17 @@
       </c>
     </row>
     <row r="55" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G55" s="6" t="s">
+      <c r="A55" s="25"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I55" s="1" t="s">
@@ -2392,17 +2395,17 @@
       </c>
     </row>
     <row r="56" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G56" s="6" t="s">
+      <c r="A56" s="25"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I56" s="1" t="s">
@@ -2422,17 +2425,17 @@
       </c>
     </row>
     <row r="57" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="6" t="s">
+      <c r="A57" s="25"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I57" s="1" t="s">
@@ -2452,17 +2455,17 @@
       </c>
     </row>
     <row r="58" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="6" t="s">
+      <c r="A58" s="25"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I58" s="1" t="s">
@@ -2482,17 +2485,17 @@
       </c>
     </row>
     <row r="59" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="6" t="s">
+      <c r="A59" s="25"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I59" s="1" t="s">
@@ -2512,17 +2515,17 @@
       </c>
     </row>
     <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="6" t="s">
+      <c r="A60" s="25"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I60" s="1" t="s">
@@ -2542,17 +2545,17 @@
       </c>
     </row>
     <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G61" s="6" t="s">
+      <c r="A61" s="25"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I61" s="1" t="s">
@@ -2572,17 +2575,17 @@
       </c>
     </row>
     <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="6" t="s">
+      <c r="A62" s="25"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I62" s="1" t="s">
@@ -2602,17 +2605,17 @@
       </c>
     </row>
     <row r="63" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G63" s="6" t="s">
+      <c r="A63" s="25"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I63" s="1" t="s">
@@ -2632,17 +2635,17 @@
       </c>
     </row>
     <row r="64" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G64" s="6" t="s">
+      <c r="A64" s="25"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I64" s="1" t="s">
@@ -2662,17 +2665,17 @@
       </c>
     </row>
     <row r="65" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G65" s="6" t="s">
+      <c r="A65" s="25"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I65" s="1" t="s">
@@ -2692,17 +2695,17 @@
       </c>
     </row>
     <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="6" t="s">
+      <c r="A66" s="25"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I66" s="1" t="s">
@@ -2722,17 +2725,17 @@
       </c>
     </row>
     <row r="67" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G67" s="6" t="s">
+      <c r="A67" s="25"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I67" s="1" t="s">
@@ -2752,17 +2755,17 @@
       </c>
     </row>
     <row r="68" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G68" s="6" t="s">
+      <c r="A68" s="25"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I68" s="1" t="s">
@@ -2782,17 +2785,17 @@
       </c>
     </row>
     <row r="69" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G69" s="6" t="s">
+      <c r="A69" s="25"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I69" s="1" t="s">
@@ -2812,17 +2815,17 @@
       </c>
     </row>
     <row r="70" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" s="6" t="s">
+      <c r="A70" s="25"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I70" s="1" t="s">
@@ -2842,17 +2845,17 @@
       </c>
     </row>
     <row r="71" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G71" s="6" t="s">
+      <c r="A71" s="25"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I71" s="1" t="s">
@@ -2872,17 +2875,17 @@
       </c>
     </row>
     <row r="72" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="7"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="6" t="s">
+      <c r="A72" s="25"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I72" s="1" t="s">
@@ -2902,17 +2905,17 @@
       </c>
     </row>
     <row r="73" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G73" s="6" t="s">
+      <c r="A73" s="25"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I73" s="1" t="s">
@@ -2932,17 +2935,17 @@
       </c>
     </row>
     <row r="74" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="7"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G74" s="6" t="s">
+      <c r="A74" s="25"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I74" s="1" t="s">
@@ -2962,17 +2965,17 @@
       </c>
     </row>
     <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="7"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G75" s="6" t="s">
+      <c r="A75" s="25"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I75" s="1" t="s">
@@ -2992,17 +2995,17 @@
       </c>
     </row>
     <row r="76" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="6" t="s">
+      <c r="A76" s="25"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I76" s="1" t="s">
@@ -3022,17 +3025,17 @@
       </c>
     </row>
     <row r="77" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G77" s="6" t="s">
+      <c r="A77" s="25"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I77" s="1" t="s">
@@ -3052,17 +3055,17 @@
       </c>
     </row>
     <row r="78" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G78" s="6" t="s">
+      <c r="A78" s="25"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I78" s="1" t="s">
@@ -3082,17 +3085,17 @@
       </c>
     </row>
     <row r="79" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="7"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G79" s="6" t="s">
+      <c r="A79" s="25"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I79" s="1" t="s">
@@ -3112,17 +3115,17 @@
       </c>
     </row>
     <row r="80" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="7"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="6" t="s">
+      <c r="A80" s="25"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I80" s="1" t="s">
@@ -3142,17 +3145,17 @@
       </c>
     </row>
     <row r="81" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="7"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="6" t="s">
+      <c r="A81" s="25"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I81" s="1" t="s">
@@ -3172,17 +3175,17 @@
       </c>
     </row>
     <row r="82" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="7"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G82" s="6" t="s">
+      <c r="A82" s="25"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I82" s="1" t="s">
@@ -3202,17 +3205,17 @@
       </c>
     </row>
     <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="7"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="6" t="s">
+      <c r="A83" s="25"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I83" s="1" t="s">
@@ -3232,17 +3235,17 @@
       </c>
     </row>
     <row r="84" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="7"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G84" s="6" t="s">
+      <c r="A84" s="25"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I84" s="1" t="s">
@@ -3262,17 +3265,17 @@
       </c>
     </row>
     <row r="85" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="7"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G85" s="6" t="s">
+      <c r="A85" s="25"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I85" s="1" t="s">
@@ -3292,17 +3295,17 @@
       </c>
     </row>
     <row r="86" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G86" s="6" t="s">
+      <c r="A86" s="25"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I86" s="1" t="s">
@@ -3322,17 +3325,17 @@
       </c>
     </row>
     <row r="87" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G87" s="6" t="s">
+      <c r="A87" s="25"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I87" s="1" t="s">
@@ -3352,17 +3355,17 @@
       </c>
     </row>
     <row r="88" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="7"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G88" s="6" t="s">
+      <c r="A88" s="25"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I88" s="1" t="s">
@@ -3382,17 +3385,17 @@
       </c>
     </row>
     <row r="89" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="7"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="6" t="s">
+      <c r="A89" s="25"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I89" s="1" t="s">
@@ -3412,17 +3415,17 @@
       </c>
     </row>
     <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="7"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G90" s="6" t="s">
+      <c r="A90" s="25"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I90" s="1" t="s">
@@ -3442,17 +3445,17 @@
       </c>
     </row>
     <row r="91" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="7"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="6" t="s">
+      <c r="A91" s="25"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I91" s="1" t="s">
@@ -3472,17 +3475,17 @@
       </c>
     </row>
     <row r="92" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="7"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G92" s="6" t="s">
+      <c r="A92" s="25"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="6"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I92" s="1" t="s">
@@ -3502,17 +3505,17 @@
       </c>
     </row>
     <row r="93" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="7"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G93" s="6" t="s">
+      <c r="A93" s="25"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I93" s="1" t="s">
@@ -3532,17 +3535,17 @@
       </c>
     </row>
     <row r="94" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="7"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="6" t="s">
+      <c r="A94" s="25"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I94" s="1" t="s">
@@ -3562,17 +3565,17 @@
       </c>
     </row>
     <row r="95" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="7"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G95" s="6" t="s">
+      <c r="A95" s="25"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I95" s="1" t="s">
@@ -3592,17 +3595,17 @@
       </c>
     </row>
     <row r="96" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="7"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G96" s="6" t="s">
+      <c r="A96" s="25"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I96" s="1" t="s">
@@ -3622,17 +3625,17 @@
       </c>
     </row>
     <row r="97" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="7"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G97" s="6" t="s">
+      <c r="A97" s="25"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I97" s="1" t="s">
@@ -3652,17 +3655,17 @@
       </c>
     </row>
     <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" s="7"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G98" s="6" t="s">
+      <c r="A98" s="25"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I98" s="1" t="s">
@@ -3682,17 +3685,17 @@
       </c>
     </row>
     <row r="99" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" s="7"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G99" s="6" t="s">
+      <c r="A99" s="25"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G99" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I99" s="1" t="s">
@@ -3712,17 +3715,17 @@
       </c>
     </row>
     <row r="100" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="7"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="6" t="s">
+      <c r="A100" s="25"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="6"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I100" s="1" t="s">
@@ -3742,17 +3745,17 @@
       </c>
     </row>
     <row r="101" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="7"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="6" t="s">
+      <c r="A101" s="25"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="6"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I101" s="1" t="s">
@@ -3772,17 +3775,17 @@
       </c>
     </row>
     <row r="102" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" s="7"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="6" t="s">
+      <c r="A102" s="25"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I102" s="1" t="s">
@@ -3802,17 +3805,17 @@
       </c>
     </row>
     <row r="103" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" s="7"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G103" s="6" t="s">
+      <c r="A103" s="25"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="6"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G103" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I103" s="1" t="s">
@@ -3832,17 +3835,17 @@
       </c>
     </row>
     <row r="104" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" s="7"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G104" s="6" t="s">
+      <c r="A104" s="25"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="6"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G104" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I104" s="1" t="s">
@@ -3862,17 +3865,17 @@
       </c>
     </row>
     <row r="105" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" s="7"/>
-      <c r="E105" s="24"/>
-      <c r="F105" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G105" s="6" t="s">
+      <c r="A105" s="25"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="6"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G105" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I105" s="1" t="s">
@@ -3892,17 +3895,17 @@
       </c>
     </row>
     <row r="106" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" s="7"/>
-      <c r="E106" s="24"/>
-      <c r="F106" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G106" s="6" t="s">
+      <c r="A106" s="25"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="6"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G106" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I106" s="1" t="s">
@@ -3922,17 +3925,17 @@
       </c>
     </row>
     <row r="107" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="7"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G107" s="6" t="s">
+      <c r="A107" s="25"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="6"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G107" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I107" s="1" t="s">
@@ -3952,17 +3955,17 @@
       </c>
     </row>
     <row r="108" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108" s="7"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G108" s="6" t="s">
+      <c r="A108" s="25"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="6"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G108" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I108" s="1" t="s">
@@ -3982,17 +3985,17 @@
       </c>
     </row>
     <row r="109" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109" s="7"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G109" s="6" t="s">
+      <c r="A109" s="25"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="6"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G109" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I109" s="1" t="s">
@@ -4012,17 +4015,17 @@
       </c>
     </row>
     <row r="110" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" s="7"/>
-      <c r="E110" s="24"/>
-      <c r="F110" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G110" s="6" t="s">
+      <c r="A110" s="25"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="6"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G110" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I110" s="1" t="s">
@@ -4042,17 +4045,17 @@
       </c>
     </row>
     <row r="111" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D111" s="7"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G111" s="6" t="s">
+      <c r="A111" s="25"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="6"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G111" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I111" s="1" t="s">
@@ -4072,17 +4075,17 @@
       </c>
     </row>
     <row r="112" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112" s="7"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G112" s="6" t="s">
+      <c r="A112" s="25"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="6"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G112" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I112" s="1" t="s">
@@ -4102,17 +4105,17 @@
       </c>
     </row>
     <row r="113" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113" s="7"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G113" s="6" t="s">
+      <c r="A113" s="25"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="6"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G113" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I113" s="1" t="s">
@@ -4132,17 +4135,17 @@
       </c>
     </row>
     <row r="114" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114" s="7"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G114" s="6" t="s">
+      <c r="A114" s="25"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="6"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G114" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I114" s="1" t="s">
@@ -4162,17 +4165,17 @@
       </c>
     </row>
     <row r="115" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" s="7"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G115" s="6" t="s">
+      <c r="A115" s="25"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="6"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G115" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I115" s="1" t="s">
@@ -4192,17 +4195,17 @@
       </c>
     </row>
     <row r="116" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D116" s="7"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G116" s="6" t="s">
+      <c r="A116" s="25"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="6"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G116" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I116" s="1" t="s">
@@ -4222,17 +4225,17 @@
       </c>
     </row>
     <row r="117" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D117" s="7"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G117" s="6" t="s">
+      <c r="A117" s="25"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="6"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G117" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I117" s="1" t="s">
@@ -4252,17 +4255,17 @@
       </c>
     </row>
     <row r="118" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D118" s="7"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G118" s="6" t="s">
+      <c r="A118" s="25"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="6"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G118" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I118" s="1" t="s">
@@ -4282,17 +4285,17 @@
       </c>
     </row>
     <row r="119" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" s="7"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G119" s="6" t="s">
+      <c r="A119" s="25"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G119" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I119" s="1" t="s">
@@ -4312,17 +4315,17 @@
       </c>
     </row>
     <row r="120" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D120" s="7"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G120" s="6" t="s">
+      <c r="A120" s="25"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="6"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G120" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I120" s="1" t="s">
@@ -4342,17 +4345,17 @@
       </c>
     </row>
     <row r="121" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D121" s="7"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G121" s="6" t="s">
+      <c r="A121" s="25"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G121" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I121" s="1" t="s">
@@ -4372,17 +4375,17 @@
       </c>
     </row>
     <row r="122" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D122" s="7"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G122" s="6" t="s">
+      <c r="A122" s="25"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G122" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I122" s="1" t="s">
@@ -4402,17 +4405,17 @@
       </c>
     </row>
     <row r="123" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D123" s="7"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G123" s="6" t="s">
+      <c r="A123" s="25"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G123" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I123" s="1" t="s">
@@ -4432,17 +4435,17 @@
       </c>
     </row>
     <row r="124" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D124" s="7"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G124" s="6" t="s">
+      <c r="A124" s="25"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G124" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I124" s="1" t="s">
@@ -4462,17 +4465,17 @@
       </c>
     </row>
     <row r="125" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D125" s="7"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G125" s="6" t="s">
+      <c r="A125" s="25"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G125" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I125" s="1" t="s">
@@ -4492,17 +4495,17 @@
       </c>
     </row>
     <row r="126" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D126" s="7"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G126" s="6" t="s">
+      <c r="A126" s="25"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G126" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I126" s="1" t="s">
@@ -4522,17 +4525,17 @@
       </c>
     </row>
     <row r="127" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D127" s="7"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G127" s="6" t="s">
+      <c r="A127" s="25"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="6"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G127" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I127" s="1" t="s">
@@ -4552,17 +4555,17 @@
       </c>
     </row>
     <row r="128" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D128" s="7"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G128" s="6" t="s">
+      <c r="A128" s="25"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="6"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G128" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I128" s="1" t="s">
@@ -4582,17 +4585,17 @@
       </c>
     </row>
     <row r="129" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D129" s="7"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G129" s="6" t="s">
+      <c r="A129" s="25"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="6"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G129" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I129" s="1" t="s">
@@ -4612,17 +4615,17 @@
       </c>
     </row>
     <row r="130" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D130" s="7"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G130" s="6" t="s">
+      <c r="A130" s="25"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="6"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G130" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I130" s="1" t="s">
@@ -4642,17 +4645,17 @@
       </c>
     </row>
     <row r="131" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D131" s="7"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G131" s="6" t="s">
+      <c r="A131" s="25"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="6"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G131" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I131" s="1" t="s">
@@ -4672,17 +4675,17 @@
       </c>
     </row>
     <row r="132" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D132" s="7"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G132" s="6" t="s">
+      <c r="A132" s="25"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="6"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G132" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I132" s="1" t="s">
@@ -4702,17 +4705,17 @@
       </c>
     </row>
     <row r="133" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D133" s="7"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G133" s="6" t="s">
+      <c r="A133" s="25"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" s="6"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G133" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I133" s="1" t="s">
@@ -4732,17 +4735,17 @@
       </c>
     </row>
     <row r="134" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D134" s="7"/>
-      <c r="E134" s="24"/>
-      <c r="F134" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G134" s="6" t="s">
+      <c r="A134" s="25"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="6"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G134" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I134" s="1" t="s">
@@ -4762,17 +4765,17 @@
       </c>
     </row>
     <row r="135" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D135" s="7"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G135" s="6" t="s">
+      <c r="A135" s="25"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="6"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G135" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I135" s="1" t="s">
@@ -4792,17 +4795,17 @@
       </c>
     </row>
     <row r="136" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D136" s="7"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G136" s="6" t="s">
+      <c r="A136" s="25"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="6"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G136" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I136" s="1" t="s">
@@ -4822,17 +4825,17 @@
       </c>
     </row>
     <row r="137" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-      <c r="C137" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D137" s="7"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G137" s="6" t="s">
+      <c r="A137" s="25"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="6"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G137" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I137" s="1" t="s">
@@ -4852,17 +4855,17 @@
       </c>
     </row>
     <row r="138" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D138" s="7"/>
-      <c r="E138" s="24"/>
-      <c r="F138" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G138" s="6" t="s">
+      <c r="A138" s="25"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="6"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G138" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I138" s="1" t="s">
@@ -4882,17 +4885,17 @@
       </c>
     </row>
     <row r="139" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-      <c r="C139" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D139" s="7"/>
-      <c r="E139" s="24"/>
-      <c r="F139" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G139" s="6" t="s">
+      <c r="A139" s="25"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="6"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G139" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I139" s="1" t="s">
@@ -4912,17 +4915,17 @@
       </c>
     </row>
     <row r="140" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D140" s="7"/>
-      <c r="E140" s="24"/>
-      <c r="F140" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G140" s="6" t="s">
+      <c r="A140" s="25"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="6"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G140" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I140" s="1" t="s">
@@ -4942,17 +4945,17 @@
       </c>
     </row>
     <row r="141" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-      <c r="C141" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D141" s="7"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G141" s="6" t="s">
+      <c r="A141" s="25"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="6"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G141" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I141" s="1" t="s">
@@ -4972,17 +4975,17 @@
       </c>
     </row>
     <row r="142" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-      <c r="C142" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D142" s="7"/>
-      <c r="E142" s="24"/>
-      <c r="F142" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G142" s="6" t="s">
+      <c r="A142" s="25"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="6"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G142" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I142" s="1" t="s">
@@ -5002,17 +5005,17 @@
       </c>
     </row>
     <row r="143" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-      <c r="C143" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D143" s="7"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G143" s="6" t="s">
+      <c r="A143" s="25"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="6"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G143" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I143" s="1" t="s">
@@ -5032,17 +5035,17 @@
       </c>
     </row>
     <row r="144" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-      <c r="C144" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D144" s="7"/>
-      <c r="E144" s="24"/>
-      <c r="F144" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G144" s="6" t="s">
+      <c r="A144" s="25"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="6"/>
+      <c r="E144" s="21"/>
+      <c r="F144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G144" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I144" s="1" t="s">
@@ -5062,17 +5065,17 @@
       </c>
     </row>
     <row r="145" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D145" s="7"/>
-      <c r="E145" s="24"/>
-      <c r="F145" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G145" s="6" t="s">
+      <c r="A145" s="25"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="6"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G145" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I145" s="1" t="s">
@@ -5092,17 +5095,17 @@
       </c>
     </row>
     <row r="146" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-      <c r="C146" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D146" s="7"/>
-      <c r="E146" s="24"/>
-      <c r="F146" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G146" s="6" t="s">
+      <c r="A146" s="25"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="6"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G146" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I146" s="1" t="s">
@@ -5122,17 +5125,17 @@
       </c>
     </row>
     <row r="147" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D147" s="7"/>
-      <c r="E147" s="24"/>
-      <c r="F147" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G147" s="6" t="s">
+      <c r="A147" s="25"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="6"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G147" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I147" s="1" t="s">
@@ -5152,17 +5155,17 @@
       </c>
     </row>
     <row r="148" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-      <c r="C148" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D148" s="7"/>
-      <c r="E148" s="24"/>
-      <c r="F148" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G148" s="6" t="s">
+      <c r="A148" s="25"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="6"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G148" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I148" s="1" t="s">
@@ -5182,17 +5185,17 @@
       </c>
     </row>
     <row r="149" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-      <c r="C149" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D149" s="7"/>
-      <c r="E149" s="24"/>
-      <c r="F149" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G149" s="6" t="s">
+      <c r="A149" s="25"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="6"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G149" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I149" s="1" t="s">
@@ -5212,17 +5215,17 @@
       </c>
     </row>
     <row r="150" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-      <c r="C150" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D150" s="7"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G150" s="6" t="s">
+      <c r="A150" s="25"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="6"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G150" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I150" s="1" t="s">
@@ -5242,17 +5245,17 @@
       </c>
     </row>
     <row r="151" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D151" s="7"/>
-      <c r="E151" s="24"/>
-      <c r="F151" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G151" s="6" t="s">
+      <c r="A151" s="25"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="6"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G151" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I151" s="1" t="s">
@@ -5272,17 +5275,17 @@
       </c>
     </row>
     <row r="152" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D152" s="7"/>
-      <c r="E152" s="24"/>
-      <c r="F152" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G152" s="6" t="s">
+      <c r="A152" s="25"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="6"/>
+      <c r="E152" s="21"/>
+      <c r="F152" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G152" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I152" s="1" t="s">
@@ -5302,17 +5305,17 @@
       </c>
     </row>
     <row r="153" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D153" s="7"/>
-      <c r="E153" s="24"/>
-      <c r="F153" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G153" s="6" t="s">
+      <c r="A153" s="25"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="6"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G153" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I153" s="1" t="s">
@@ -5332,17 +5335,17 @@
       </c>
     </row>
     <row r="154" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D154" s="7"/>
-      <c r="E154" s="24"/>
-      <c r="F154" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G154" s="6" t="s">
+      <c r="A154" s="25"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="6"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G154" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I154" s="1" t="s">
@@ -5362,17 +5365,17 @@
       </c>
     </row>
     <row r="155" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D155" s="7"/>
-      <c r="E155" s="24"/>
-      <c r="F155" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G155" s="6" t="s">
+      <c r="A155" s="25"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" s="6"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G155" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I155" s="1" t="s">
@@ -5392,17 +5395,17 @@
       </c>
     </row>
     <row r="156" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D156" s="7"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G156" s="6" t="s">
+      <c r="A156" s="25"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="6"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G156" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I156" s="1" t="s">
@@ -5422,17 +5425,17 @@
       </c>
     </row>
     <row r="157" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D157" s="7"/>
-      <c r="E157" s="24"/>
-      <c r="F157" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G157" s="6" t="s">
+      <c r="A157" s="25"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="6"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G157" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I157" s="1" t="s">
@@ -5452,17 +5455,17 @@
       </c>
     </row>
     <row r="158" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" s="7"/>
-      <c r="E158" s="24"/>
-      <c r="F158" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G158" s="6" t="s">
+      <c r="A158" s="25"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="6"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G158" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I158" s="1" t="s">
@@ -5482,17 +5485,17 @@
       </c>
     </row>
     <row r="159" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D159" s="7"/>
-      <c r="E159" s="24"/>
-      <c r="F159" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G159" s="6" t="s">
+      <c r="A159" s="25"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="6"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G159" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I159" s="1" t="s">
@@ -5512,17 +5515,17 @@
       </c>
     </row>
     <row r="160" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D160" s="7"/>
-      <c r="E160" s="24"/>
-      <c r="F160" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G160" s="6" t="s">
+      <c r="A160" s="25"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="6"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G160" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I160" s="1" t="s">
@@ -5542,17 +5545,17 @@
       </c>
     </row>
     <row r="161" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="5"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D161" s="7"/>
-      <c r="E161" s="24"/>
-      <c r="F161" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G161" s="6" t="s">
+      <c r="A161" s="25"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="6"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G161" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I161" s="1" t="s">
@@ -5572,17 +5575,17 @@
       </c>
     </row>
     <row r="162" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="5"/>
-      <c r="B162" s="5"/>
-      <c r="C162" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D162" s="7"/>
-      <c r="E162" s="24"/>
-      <c r="F162" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G162" s="6" t="s">
+      <c r="A162" s="25"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="6"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G162" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I162" s="1" t="s">
@@ -5602,17 +5605,17 @@
       </c>
     </row>
     <row r="163" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
-      <c r="C163" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D163" s="7"/>
-      <c r="E163" s="24"/>
-      <c r="F163" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G163" s="6" t="s">
+      <c r="A163" s="25"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="6"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G163" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I163" s="1" t="s">
@@ -5632,17 +5635,17 @@
       </c>
     </row>
     <row r="164" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="5"/>
-      <c r="B164" s="5"/>
-      <c r="C164" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D164" s="7"/>
-      <c r="E164" s="24"/>
-      <c r="F164" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G164" s="6" t="s">
+      <c r="A164" s="25"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="6"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G164" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I164" s="1" t="s">
@@ -5662,17 +5665,17 @@
       </c>
     </row>
     <row r="165" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D165" s="7"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G165" s="6" t="s">
+      <c r="A165" s="25"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="6"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G165" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I165" s="1" t="s">
@@ -5692,17 +5695,17 @@
       </c>
     </row>
     <row r="166" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D166" s="7"/>
-      <c r="E166" s="24"/>
-      <c r="F166" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G166" s="6" t="s">
+      <c r="A166" s="25"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="6"/>
+      <c r="E166" s="21"/>
+      <c r="F166" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G166" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I166" s="1" t="s">
@@ -5722,17 +5725,17 @@
       </c>
     </row>
     <row r="167" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D167" s="7"/>
-      <c r="E167" s="24"/>
-      <c r="F167" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G167" s="6" t="s">
+      <c r="A167" s="25"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" s="6"/>
+      <c r="E167" s="21"/>
+      <c r="F167" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G167" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I167" s="1" t="s">
@@ -5752,17 +5755,17 @@
       </c>
     </row>
     <row r="168" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D168" s="7"/>
-      <c r="E168" s="24"/>
-      <c r="F168" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G168" s="6" t="s">
+      <c r="A168" s="25"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="6"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G168" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I168" s="1" t="s">
@@ -5782,17 +5785,17 @@
       </c>
     </row>
     <row r="169" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
-      <c r="C169" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D169" s="7"/>
-      <c r="E169" s="24"/>
-      <c r="F169" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G169" s="6" t="s">
+      <c r="A169" s="25"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" s="6"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G169" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I169" s="1" t="s">
@@ -5812,17 +5815,17 @@
       </c>
     </row>
     <row r="170" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D170" s="7"/>
-      <c r="E170" s="24"/>
-      <c r="F170" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G170" s="6" t="s">
+      <c r="A170" s="25"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" s="6"/>
+      <c r="E170" s="21"/>
+      <c r="F170" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G170" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I170" s="1" t="s">
@@ -5842,17 +5845,17 @@
       </c>
     </row>
     <row r="171" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="5"/>
-      <c r="B171" s="5"/>
-      <c r="C171" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D171" s="7"/>
-      <c r="E171" s="24"/>
-      <c r="F171" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G171" s="6" t="s">
+      <c r="A171" s="25"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="6"/>
+      <c r="E171" s="21"/>
+      <c r="F171" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G171" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I171" s="1" t="s">
@@ -5872,17 +5875,17 @@
       </c>
     </row>
     <row r="172" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="5"/>
-      <c r="B172" s="5"/>
-      <c r="C172" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D172" s="7"/>
-      <c r="E172" s="24"/>
-      <c r="F172" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G172" s="6" t="s">
+      <c r="A172" s="25"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="6"/>
+      <c r="E172" s="21"/>
+      <c r="F172" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G172" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I172" s="1" t="s">
@@ -5902,17 +5905,17 @@
       </c>
     </row>
     <row r="173" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="5"/>
-      <c r="B173" s="5"/>
-      <c r="C173" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D173" s="7"/>
-      <c r="E173" s="24"/>
-      <c r="F173" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G173" s="6" t="s">
+      <c r="A173" s="25"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" s="6"/>
+      <c r="E173" s="21"/>
+      <c r="F173" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G173" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I173" s="1" t="s">
@@ -5932,17 +5935,17 @@
       </c>
     </row>
     <row r="174" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="5"/>
-      <c r="B174" s="5"/>
-      <c r="C174" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D174" s="7"/>
-      <c r="E174" s="24"/>
-      <c r="F174" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G174" s="6" t="s">
+      <c r="A174" s="25"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" s="6"/>
+      <c r="E174" s="21"/>
+      <c r="F174" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G174" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I174" s="1" t="s">
@@ -5962,17 +5965,17 @@
       </c>
     </row>
     <row r="175" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="5"/>
-      <c r="B175" s="5"/>
-      <c r="C175" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D175" s="7"/>
-      <c r="E175" s="24"/>
-      <c r="F175" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G175" s="6" t="s">
+      <c r="A175" s="25"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" s="6"/>
+      <c r="E175" s="21"/>
+      <c r="F175" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G175" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I175" s="1" t="s">
@@ -5992,17 +5995,17 @@
       </c>
     </row>
     <row r="176" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="5"/>
-      <c r="B176" s="5"/>
-      <c r="C176" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D176" s="7"/>
-      <c r="E176" s="24"/>
-      <c r="F176" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G176" s="6" t="s">
+      <c r="A176" s="25"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="6"/>
+      <c r="E176" s="21"/>
+      <c r="F176" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G176" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I176" s="1" t="s">
@@ -6022,17 +6025,17 @@
       </c>
     </row>
     <row r="177" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="5"/>
-      <c r="B177" s="5"/>
-      <c r="C177" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D177" s="7"/>
-      <c r="E177" s="24"/>
-      <c r="F177" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G177" s="6" t="s">
+      <c r="A177" s="25"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="6"/>
+      <c r="E177" s="21"/>
+      <c r="F177" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G177" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I177" s="1" t="s">
@@ -6052,17 +6055,17 @@
       </c>
     </row>
     <row r="178" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="5"/>
-      <c r="B178" s="5"/>
-      <c r="C178" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D178" s="7"/>
-      <c r="E178" s="24"/>
-      <c r="F178" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G178" s="6" t="s">
+      <c r="A178" s="25"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" s="6"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G178" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I178" s="1" t="s">
@@ -6082,17 +6085,17 @@
       </c>
     </row>
     <row r="179" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="5"/>
-      <c r="B179" s="5"/>
-      <c r="C179" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D179" s="7"/>
-      <c r="E179" s="24"/>
-      <c r="F179" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G179" s="6" t="s">
+      <c r="A179" s="25"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" s="6"/>
+      <c r="E179" s="21"/>
+      <c r="F179" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G179" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I179" s="1" t="s">
@@ -6112,17 +6115,17 @@
       </c>
     </row>
     <row r="180" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="5"/>
-      <c r="B180" s="5"/>
-      <c r="C180" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D180" s="7"/>
-      <c r="E180" s="24"/>
-      <c r="F180" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G180" s="6" t="s">
+      <c r="A180" s="25"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="6"/>
+      <c r="E180" s="21"/>
+      <c r="F180" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G180" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I180" s="1" t="s">
@@ -6142,17 +6145,17 @@
       </c>
     </row>
     <row r="181" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="5"/>
-      <c r="B181" s="5"/>
-      <c r="C181" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D181" s="7"/>
-      <c r="E181" s="24"/>
-      <c r="F181" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G181" s="6" t="s">
+      <c r="A181" s="25"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" s="6"/>
+      <c r="E181" s="21"/>
+      <c r="F181" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G181" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I181" s="1" t="s">
@@ -6172,17 +6175,17 @@
       </c>
     </row>
     <row r="182" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="5"/>
-      <c r="B182" s="5"/>
-      <c r="C182" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D182" s="7"/>
-      <c r="E182" s="24"/>
-      <c r="F182" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G182" s="6" t="s">
+      <c r="A182" s="25"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" s="6"/>
+      <c r="E182" s="21"/>
+      <c r="F182" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G182" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I182" s="1" t="s">
@@ -6202,17 +6205,17 @@
       </c>
     </row>
     <row r="183" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="5"/>
-      <c r="B183" s="5"/>
-      <c r="C183" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D183" s="7"/>
-      <c r="E183" s="24"/>
-      <c r="F183" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G183" s="6" t="s">
+      <c r="A183" s="25"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D183" s="6"/>
+      <c r="E183" s="21"/>
+      <c r="F183" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G183" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I183" s="1" t="s">
@@ -6232,17 +6235,17 @@
       </c>
     </row>
     <row r="184" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="5"/>
-      <c r="B184" s="5"/>
-      <c r="C184" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D184" s="7"/>
-      <c r="E184" s="24"/>
-      <c r="F184" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G184" s="6" t="s">
+      <c r="A184" s="25"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="6"/>
+      <c r="E184" s="21"/>
+      <c r="F184" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G184" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I184" s="1" t="s">
@@ -6262,17 +6265,17 @@
       </c>
     </row>
     <row r="185" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="5"/>
-      <c r="B185" s="5"/>
-      <c r="C185" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D185" s="7"/>
-      <c r="E185" s="24"/>
-      <c r="F185" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G185" s="6" t="s">
+      <c r="A185" s="25"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="6"/>
+      <c r="E185" s="21"/>
+      <c r="F185" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G185" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I185" s="1" t="s">
@@ -6292,17 +6295,17 @@
       </c>
     </row>
     <row r="186" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="5"/>
-      <c r="B186" s="5"/>
-      <c r="C186" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D186" s="7"/>
-      <c r="E186" s="24"/>
-      <c r="F186" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G186" s="6" t="s">
+      <c r="A186" s="25"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="6"/>
+      <c r="E186" s="21"/>
+      <c r="F186" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G186" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I186" s="1" t="s">
@@ -6322,17 +6325,17 @@
       </c>
     </row>
     <row r="187" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="5"/>
-      <c r="B187" s="5"/>
-      <c r="C187" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D187" s="7"/>
-      <c r="E187" s="24"/>
-      <c r="F187" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G187" s="6" t="s">
+      <c r="A187" s="25"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D187" s="6"/>
+      <c r="E187" s="21"/>
+      <c r="F187" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G187" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I187" s="1" t="s">
@@ -6352,17 +6355,17 @@
       </c>
     </row>
     <row r="188" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="5"/>
-      <c r="B188" s="5"/>
-      <c r="C188" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D188" s="7"/>
-      <c r="E188" s="24"/>
-      <c r="F188" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G188" s="6" t="s">
+      <c r="A188" s="25"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="6"/>
+      <c r="E188" s="21"/>
+      <c r="F188" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G188" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I188" s="1" t="s">
@@ -6382,17 +6385,17 @@
       </c>
     </row>
     <row r="189" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="5"/>
-      <c r="B189" s="5"/>
-      <c r="C189" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D189" s="7"/>
-      <c r="E189" s="24"/>
-      <c r="F189" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G189" s="6" t="s">
+      <c r="A189" s="25"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" s="6"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G189" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I189" s="1" t="s">
@@ -6412,17 +6415,17 @@
       </c>
     </row>
     <row r="190" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="5"/>
-      <c r="B190" s="5"/>
-      <c r="C190" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D190" s="7"/>
-      <c r="E190" s="24"/>
-      <c r="F190" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G190" s="6" t="s">
+      <c r="A190" s="25"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" s="6"/>
+      <c r="E190" s="21"/>
+      <c r="F190" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G190" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I190" s="1" t="s">
@@ -6442,17 +6445,17 @@
       </c>
     </row>
     <row r="191" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="5"/>
-      <c r="B191" s="5"/>
-      <c r="C191" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D191" s="7"/>
-      <c r="E191" s="24"/>
-      <c r="F191" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G191" s="6" t="s">
+      <c r="A191" s="25"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" s="6"/>
+      <c r="E191" s="21"/>
+      <c r="F191" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G191" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I191" s="1" t="s">
@@ -6472,17 +6475,17 @@
       </c>
     </row>
     <row r="192" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="5"/>
-      <c r="B192" s="5"/>
-      <c r="C192" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D192" s="7"/>
-      <c r="E192" s="24"/>
-      <c r="F192" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G192" s="6" t="s">
+      <c r="A192" s="25"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="6"/>
+      <c r="E192" s="21"/>
+      <c r="F192" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G192" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I192" s="1" t="s">
@@ -6502,17 +6505,17 @@
       </c>
     </row>
     <row r="193" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="5"/>
-      <c r="B193" s="5"/>
-      <c r="C193" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D193" s="7"/>
-      <c r="E193" s="24"/>
-      <c r="F193" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G193" s="6" t="s">
+      <c r="A193" s="25"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" s="6"/>
+      <c r="E193" s="21"/>
+      <c r="F193" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G193" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I193" s="1" t="s">
@@ -6532,17 +6535,17 @@
       </c>
     </row>
     <row r="194" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="5"/>
-      <c r="B194" s="5"/>
-      <c r="C194" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D194" s="7"/>
-      <c r="E194" s="24"/>
-      <c r="F194" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G194" s="6" t="s">
+      <c r="A194" s="25"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="6"/>
+      <c r="E194" s="21"/>
+      <c r="F194" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G194" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I194" s="1" t="s">
@@ -6562,17 +6565,17 @@
       </c>
     </row>
     <row r="195" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="5"/>
-      <c r="B195" s="5"/>
-      <c r="C195" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D195" s="7"/>
-      <c r="E195" s="24"/>
-      <c r="F195" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G195" s="6" t="s">
+      <c r="A195" s="25"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" s="6"/>
+      <c r="E195" s="21"/>
+      <c r="F195" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G195" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I195" s="1" t="s">
@@ -6592,17 +6595,17 @@
       </c>
     </row>
     <row r="196" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="5"/>
-      <c r="B196" s="5"/>
-      <c r="C196" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D196" s="7"/>
-      <c r="E196" s="24"/>
-      <c r="F196" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G196" s="6" t="s">
+      <c r="A196" s="25"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" s="6"/>
+      <c r="E196" s="21"/>
+      <c r="F196" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G196" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I196" s="1" t="s">
@@ -6622,17 +6625,17 @@
       </c>
     </row>
     <row r="197" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="5"/>
-      <c r="B197" s="5"/>
-      <c r="C197" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D197" s="7"/>
-      <c r="E197" s="24"/>
-      <c r="F197" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G197" s="6" t="s">
+      <c r="A197" s="25"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" s="6"/>
+      <c r="E197" s="21"/>
+      <c r="F197" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G197" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I197" s="1" t="s">
@@ -6652,17 +6655,17 @@
       </c>
     </row>
     <row r="198" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="5"/>
-      <c r="B198" s="5"/>
-      <c r="C198" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D198" s="7"/>
-      <c r="E198" s="24"/>
-      <c r="F198" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G198" s="6" t="s">
+      <c r="A198" s="25"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="6"/>
+      <c r="E198" s="21"/>
+      <c r="F198" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G198" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I198" s="1" t="s">
@@ -6682,17 +6685,17 @@
       </c>
     </row>
     <row r="199" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="5"/>
-      <c r="B199" s="5"/>
-      <c r="C199" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D199" s="7"/>
-      <c r="E199" s="24"/>
-      <c r="F199" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G199" s="6" t="s">
+      <c r="A199" s="25"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D199" s="6"/>
+      <c r="E199" s="21"/>
+      <c r="F199" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G199" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I199" s="1" t="s">
@@ -6712,17 +6715,17 @@
       </c>
     </row>
     <row r="200" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="5"/>
-      <c r="B200" s="5"/>
-      <c r="C200" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D200" s="7"/>
-      <c r="E200" s="24"/>
-      <c r="F200" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G200" s="6" t="s">
+      <c r="A200" s="25"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D200" s="6"/>
+      <c r="E200" s="21"/>
+      <c r="F200" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G200" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I200" s="1" t="s">
@@ -6742,17 +6745,17 @@
       </c>
     </row>
     <row r="201" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="5"/>
-      <c r="B201" s="5"/>
-      <c r="C201" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D201" s="7"/>
-      <c r="E201" s="24"/>
-      <c r="F201" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G201" s="6" t="s">
+      <c r="A201" s="25"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="6"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G201" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I201" s="1" t="s">
@@ -6772,17 +6775,17 @@
       </c>
     </row>
     <row r="202" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="5"/>
-      <c r="B202" s="5"/>
-      <c r="C202" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D202" s="7"/>
-      <c r="E202" s="24"/>
-      <c r="F202" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G202" s="6" t="s">
+      <c r="A202" s="25"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" s="6"/>
+      <c r="E202" s="21"/>
+      <c r="F202" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G202" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I202" s="1" t="s">
@@ -6802,17 +6805,17 @@
       </c>
     </row>
     <row r="203" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="5"/>
-      <c r="B203" s="5"/>
-      <c r="C203" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D203" s="7"/>
-      <c r="E203" s="24"/>
-      <c r="F203" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G203" s="6" t="s">
+      <c r="A203" s="25"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" s="6"/>
+      <c r="E203" s="21"/>
+      <c r="F203" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G203" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I203" s="1" t="s">
@@ -6832,17 +6835,17 @@
       </c>
     </row>
     <row r="204" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="5"/>
-      <c r="B204" s="5"/>
-      <c r="C204" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D204" s="7"/>
-      <c r="E204" s="24"/>
-      <c r="F204" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G204" s="6" t="s">
+      <c r="A204" s="25"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D204" s="6"/>
+      <c r="E204" s="21"/>
+      <c r="F204" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G204" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I204" s="1" t="s">
@@ -6862,17 +6865,17 @@
       </c>
     </row>
     <row r="205" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="5"/>
-      <c r="B205" s="5"/>
-      <c r="C205" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D205" s="7"/>
-      <c r="E205" s="24"/>
-      <c r="F205" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G205" s="6" t="s">
+      <c r="A205" s="25"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D205" s="6"/>
+      <c r="E205" s="21"/>
+      <c r="F205" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G205" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I205" s="1" t="s">
@@ -6892,17 +6895,17 @@
       </c>
     </row>
     <row r="206" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="5"/>
-      <c r="B206" s="5"/>
-      <c r="C206" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D206" s="7"/>
-      <c r="E206" s="24"/>
-      <c r="F206" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G206" s="6" t="s">
+      <c r="A206" s="25"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D206" s="6"/>
+      <c r="E206" s="21"/>
+      <c r="F206" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G206" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I206" s="1" t="s">
@@ -6922,17 +6925,17 @@
       </c>
     </row>
     <row r="207" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="5"/>
-      <c r="B207" s="5"/>
-      <c r="C207" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D207" s="7"/>
-      <c r="E207" s="24"/>
-      <c r="F207" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G207" s="6" t="s">
+      <c r="A207" s="25"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D207" s="6"/>
+      <c r="E207" s="21"/>
+      <c r="F207" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G207" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I207" s="1" t="s">
@@ -6952,17 +6955,17 @@
       </c>
     </row>
     <row r="208" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="5"/>
-      <c r="B208" s="5"/>
-      <c r="C208" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D208" s="7"/>
-      <c r="E208" s="24"/>
-      <c r="F208" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G208" s="6" t="s">
+      <c r="A208" s="25"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D208" s="6"/>
+      <c r="E208" s="21"/>
+      <c r="F208" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G208" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I208" s="1" t="s">
@@ -6982,17 +6985,17 @@
       </c>
     </row>
     <row r="209" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="5"/>
-      <c r="B209" s="5"/>
-      <c r="C209" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D209" s="7"/>
-      <c r="E209" s="24"/>
-      <c r="F209" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G209" s="6" t="s">
+      <c r="A209" s="25"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D209" s="6"/>
+      <c r="E209" s="21"/>
+      <c r="F209" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G209" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I209" s="1" t="s">
@@ -7012,17 +7015,17 @@
       </c>
     </row>
     <row r="210" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="5"/>
-      <c r="B210" s="5"/>
-      <c r="C210" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D210" s="7"/>
-      <c r="E210" s="24"/>
-      <c r="F210" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G210" s="6" t="s">
+      <c r="A210" s="25"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" s="6"/>
+      <c r="E210" s="21"/>
+      <c r="F210" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G210" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I210" s="1" t="s">
@@ -7042,17 +7045,17 @@
       </c>
     </row>
     <row r="211" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="5"/>
-      <c r="B211" s="5"/>
-      <c r="C211" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D211" s="7"/>
-      <c r="E211" s="24"/>
-      <c r="F211" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G211" s="6" t="s">
+      <c r="A211" s="25"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" s="6"/>
+      <c r="E211" s="21"/>
+      <c r="F211" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G211" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I211" s="1" t="s">
@@ -7072,17 +7075,17 @@
       </c>
     </row>
     <row r="212" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="5"/>
-      <c r="B212" s="5"/>
-      <c r="C212" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D212" s="7"/>
-      <c r="E212" s="24"/>
-      <c r="F212" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G212" s="6" t="s">
+      <c r="A212" s="25"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" s="6"/>
+      <c r="E212" s="21"/>
+      <c r="F212" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G212" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I212" s="1" t="s">
@@ -7102,17 +7105,17 @@
       </c>
     </row>
     <row r="213" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="5"/>
-      <c r="B213" s="5"/>
-      <c r="C213" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D213" s="7"/>
-      <c r="E213" s="24"/>
-      <c r="F213" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G213" s="6" t="s">
+      <c r="A213" s="25"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" s="6"/>
+      <c r="E213" s="21"/>
+      <c r="F213" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G213" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I213" s="1" t="s">
@@ -7132,17 +7135,17 @@
       </c>
     </row>
     <row r="214" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="5"/>
-      <c r="B214" s="5"/>
-      <c r="C214" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D214" s="7"/>
-      <c r="E214" s="24"/>
-      <c r="F214" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G214" s="6" t="s">
+      <c r="A214" s="25"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" s="6"/>
+      <c r="E214" s="21"/>
+      <c r="F214" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G214" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I214" s="1" t="s">
@@ -7162,17 +7165,17 @@
       </c>
     </row>
     <row r="215" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="5"/>
-      <c r="B215" s="5"/>
-      <c r="C215" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D215" s="7"/>
-      <c r="E215" s="24"/>
-      <c r="F215" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G215" s="6" t="s">
+      <c r="A215" s="25"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" s="6"/>
+      <c r="E215" s="21"/>
+      <c r="F215" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G215" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I215" s="1" t="s">
@@ -7192,17 +7195,17 @@
       </c>
     </row>
     <row r="216" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="5"/>
-      <c r="B216" s="5"/>
-      <c r="C216" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D216" s="7"/>
-      <c r="E216" s="24"/>
-      <c r="F216" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G216" s="6" t="s">
+      <c r="A216" s="25"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" s="6"/>
+      <c r="E216" s="21"/>
+      <c r="F216" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G216" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I216" s="1" t="s">
@@ -7222,17 +7225,17 @@
       </c>
     </row>
     <row r="217" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="5"/>
-      <c r="B217" s="5"/>
-      <c r="C217" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D217" s="7"/>
-      <c r="E217" s="24"/>
-      <c r="F217" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G217" s="6" t="s">
+      <c r="A217" s="25"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" s="6"/>
+      <c r="E217" s="21"/>
+      <c r="F217" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G217" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I217" s="1" t="s">
@@ -7252,17 +7255,17 @@
       </c>
     </row>
     <row r="218" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="5"/>
-      <c r="B218" s="5"/>
-      <c r="C218" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D218" s="7"/>
-      <c r="E218" s="24"/>
-      <c r="F218" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G218" s="6" t="s">
+      <c r="A218" s="25"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" s="6"/>
+      <c r="E218" s="21"/>
+      <c r="F218" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G218" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I218" s="1" t="s">
@@ -7282,17 +7285,17 @@
       </c>
     </row>
     <row r="219" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="5"/>
-      <c r="B219" s="5"/>
-      <c r="C219" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D219" s="7"/>
-      <c r="E219" s="24"/>
-      <c r="F219" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G219" s="6" t="s">
+      <c r="A219" s="25"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" s="6"/>
+      <c r="E219" s="21"/>
+      <c r="F219" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G219" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I219" s="1" t="s">
@@ -7312,17 +7315,17 @@
       </c>
     </row>
     <row r="220" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="5"/>
-      <c r="B220" s="5"/>
-      <c r="C220" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D220" s="7"/>
-      <c r="E220" s="24"/>
-      <c r="F220" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G220" s="6" t="s">
+      <c r="A220" s="25"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" s="6"/>
+      <c r="E220" s="21"/>
+      <c r="F220" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G220" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I220" s="1" t="s">
@@ -7342,17 +7345,17 @@
       </c>
     </row>
     <row r="221" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="5"/>
-      <c r="B221" s="5"/>
-      <c r="C221" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D221" s="7"/>
-      <c r="E221" s="24"/>
-      <c r="F221" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G221" s="6" t="s">
+      <c r="A221" s="25"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D221" s="6"/>
+      <c r="E221" s="21"/>
+      <c r="F221" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G221" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I221" s="1" t="s">
@@ -7372,17 +7375,17 @@
       </c>
     </row>
     <row r="222" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="5"/>
-      <c r="B222" s="5"/>
-      <c r="C222" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D222" s="7"/>
-      <c r="E222" s="24"/>
-      <c r="F222" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G222" s="6" t="s">
+      <c r="A222" s="25"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D222" s="6"/>
+      <c r="E222" s="21"/>
+      <c r="F222" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G222" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I222" s="1" t="s">
@@ -7402,17 +7405,17 @@
       </c>
     </row>
     <row r="223" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="5"/>
-      <c r="B223" s="5"/>
-      <c r="C223" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D223" s="7"/>
-      <c r="E223" s="24"/>
-      <c r="F223" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G223" s="6" t="s">
+      <c r="A223" s="25"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D223" s="6"/>
+      <c r="E223" s="21"/>
+      <c r="F223" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G223" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I223" s="1" t="s">
@@ -7432,17 +7435,17 @@
       </c>
     </row>
     <row r="224" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="5"/>
-      <c r="B224" s="5"/>
-      <c r="C224" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D224" s="7"/>
-      <c r="E224" s="24"/>
-      <c r="F224" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G224" s="6" t="s">
+      <c r="A224" s="25"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D224" s="6"/>
+      <c r="E224" s="21"/>
+      <c r="F224" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G224" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I224" s="1" t="s">
@@ -7462,17 +7465,17 @@
       </c>
     </row>
     <row r="225" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="5"/>
-      <c r="B225" s="5"/>
-      <c r="C225" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D225" s="7"/>
-      <c r="E225" s="24"/>
-      <c r="F225" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G225" s="6" t="s">
+      <c r="A225" s="25"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D225" s="6"/>
+      <c r="E225" s="21"/>
+      <c r="F225" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G225" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I225" s="1" t="s">
@@ -7492,17 +7495,17 @@
       </c>
     </row>
     <row r="226" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="5"/>
-      <c r="B226" s="5"/>
-      <c r="C226" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D226" s="7"/>
-      <c r="E226" s="24"/>
-      <c r="F226" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G226" s="6" t="s">
+      <c r="A226" s="25"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D226" s="6"/>
+      <c r="E226" s="21"/>
+      <c r="F226" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G226" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I226" s="1" t="s">
@@ -7522,17 +7525,17 @@
       </c>
     </row>
     <row r="227" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="5"/>
-      <c r="B227" s="5"/>
-      <c r="C227" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D227" s="7"/>
-      <c r="E227" s="24"/>
-      <c r="F227" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G227" s="6" t="s">
+      <c r="A227" s="25"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D227" s="6"/>
+      <c r="E227" s="21"/>
+      <c r="F227" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G227" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I227" s="1" t="s">
@@ -7552,17 +7555,17 @@
       </c>
     </row>
     <row r="228" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="5"/>
-      <c r="B228" s="5"/>
-      <c r="C228" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D228" s="7"/>
-      <c r="E228" s="24"/>
-      <c r="F228" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G228" s="6" t="s">
+      <c r="A228" s="25"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D228" s="6"/>
+      <c r="E228" s="21"/>
+      <c r="F228" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G228" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I228" s="1" t="s">
@@ -7582,17 +7585,17 @@
       </c>
     </row>
     <row r="229" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="5"/>
-      <c r="B229" s="5"/>
-      <c r="C229" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D229" s="7"/>
-      <c r="E229" s="24"/>
-      <c r="F229" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G229" s="6" t="s">
+      <c r="A229" s="25"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D229" s="6"/>
+      <c r="E229" s="21"/>
+      <c r="F229" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G229" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I229" s="1" t="s">
@@ -7612,17 +7615,17 @@
       </c>
     </row>
     <row r="230" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="5"/>
-      <c r="B230" s="5"/>
-      <c r="C230" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D230" s="7"/>
-      <c r="E230" s="24"/>
-      <c r="F230" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G230" s="6" t="s">
+      <c r="A230" s="25"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D230" s="6"/>
+      <c r="E230" s="21"/>
+      <c r="F230" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G230" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I230" s="1" t="s">
@@ -7642,17 +7645,17 @@
       </c>
     </row>
     <row r="231" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="5"/>
-      <c r="B231" s="5"/>
-      <c r="C231" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D231" s="7"/>
-      <c r="E231" s="24"/>
-      <c r="F231" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G231" s="6" t="s">
+      <c r="A231" s="25"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D231" s="6"/>
+      <c r="E231" s="21"/>
+      <c r="F231" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G231" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I231" s="1" t="s">
@@ -7672,17 +7675,17 @@
       </c>
     </row>
     <row r="232" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="5"/>
-      <c r="B232" s="5"/>
-      <c r="C232" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D232" s="7"/>
-      <c r="E232" s="24"/>
-      <c r="F232" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G232" s="6" t="s">
+      <c r="A232" s="25"/>
+      <c r="B232" s="4"/>
+      <c r="C232" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D232" s="6"/>
+      <c r="E232" s="21"/>
+      <c r="F232" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G232" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I232" s="1" t="s">
@@ -7702,17 +7705,17 @@
       </c>
     </row>
     <row r="233" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="5"/>
-      <c r="B233" s="5"/>
-      <c r="C233" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D233" s="7"/>
-      <c r="E233" s="24"/>
-      <c r="F233" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G233" s="6" t="s">
+      <c r="A233" s="25"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" s="6"/>
+      <c r="E233" s="21"/>
+      <c r="F233" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G233" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I233" s="1" t="s">
@@ -7732,17 +7735,17 @@
       </c>
     </row>
     <row r="234" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="5"/>
-      <c r="B234" s="5"/>
-      <c r="C234" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D234" s="7"/>
-      <c r="E234" s="24"/>
-      <c r="F234" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G234" s="6" t="s">
+      <c r="A234" s="25"/>
+      <c r="B234" s="4"/>
+      <c r="C234" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D234" s="6"/>
+      <c r="E234" s="21"/>
+      <c r="F234" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G234" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I234" s="1" t="s">
@@ -7762,17 +7765,17 @@
       </c>
     </row>
     <row r="235" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="5"/>
-      <c r="B235" s="5"/>
-      <c r="C235" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D235" s="7"/>
-      <c r="E235" s="24"/>
-      <c r="F235" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G235" s="6" t="s">
+      <c r="A235" s="25"/>
+      <c r="B235" s="4"/>
+      <c r="C235" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D235" s="6"/>
+      <c r="E235" s="21"/>
+      <c r="F235" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G235" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I235" s="1" t="s">
@@ -7792,17 +7795,17 @@
       </c>
     </row>
     <row r="236" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="5"/>
-      <c r="B236" s="5"/>
-      <c r="C236" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D236" s="7"/>
-      <c r="E236" s="24"/>
-      <c r="F236" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G236" s="6" t="s">
+      <c r="A236" s="25"/>
+      <c r="B236" s="4"/>
+      <c r="C236" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" s="6"/>
+      <c r="E236" s="21"/>
+      <c r="F236" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G236" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I236" s="1" t="s">
@@ -7822,17 +7825,17 @@
       </c>
     </row>
     <row r="237" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="5"/>
-      <c r="B237" s="5"/>
-      <c r="C237" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D237" s="7"/>
-      <c r="E237" s="24"/>
-      <c r="F237" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G237" s="6" t="s">
+      <c r="A237" s="25"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" s="6"/>
+      <c r="E237" s="21"/>
+      <c r="F237" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G237" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I237" s="1" t="s">
@@ -7852,17 +7855,17 @@
       </c>
     </row>
     <row r="238" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="5"/>
-      <c r="B238" s="5"/>
-      <c r="C238" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D238" s="7"/>
-      <c r="E238" s="24"/>
-      <c r="F238" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G238" s="6" t="s">
+      <c r="A238" s="25"/>
+      <c r="B238" s="4"/>
+      <c r="C238" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D238" s="6"/>
+      <c r="E238" s="21"/>
+      <c r="F238" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G238" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I238" s="1" t="s">
@@ -7882,17 +7885,17 @@
       </c>
     </row>
     <row r="239" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="5"/>
-      <c r="B239" s="5"/>
-      <c r="C239" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D239" s="7"/>
-      <c r="E239" s="24"/>
-      <c r="F239" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G239" s="6" t="s">
+      <c r="A239" s="25"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D239" s="6"/>
+      <c r="E239" s="21"/>
+      <c r="F239" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G239" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I239" s="1" t="s">
@@ -7912,17 +7915,17 @@
       </c>
     </row>
     <row r="240" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="5"/>
-      <c r="B240" s="5"/>
-      <c r="C240" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D240" s="7"/>
-      <c r="E240" s="24"/>
-      <c r="F240" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G240" s="6" t="s">
+      <c r="A240" s="25"/>
+      <c r="B240" s="4"/>
+      <c r="C240" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D240" s="6"/>
+      <c r="E240" s="21"/>
+      <c r="F240" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G240" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I240" s="1" t="s">
@@ -7942,17 +7945,17 @@
       </c>
     </row>
     <row r="241" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="5"/>
-      <c r="B241" s="5"/>
-      <c r="C241" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D241" s="7"/>
-      <c r="E241" s="24"/>
-      <c r="F241" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G241" s="6" t="s">
+      <c r="A241" s="25"/>
+      <c r="B241" s="4"/>
+      <c r="C241" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D241" s="6"/>
+      <c r="E241" s="21"/>
+      <c r="F241" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G241" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I241" s="1" t="s">
@@ -7972,17 +7975,17 @@
       </c>
     </row>
     <row r="242" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="5"/>
-      <c r="B242" s="5"/>
-      <c r="C242" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D242" s="7"/>
-      <c r="E242" s="24"/>
-      <c r="F242" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G242" s="6" t="s">
+      <c r="A242" s="25"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D242" s="6"/>
+      <c r="E242" s="21"/>
+      <c r="F242" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G242" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I242" s="1" t="s">
@@ -8002,17 +8005,17 @@
       </c>
     </row>
     <row r="243" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="5"/>
-      <c r="B243" s="5"/>
-      <c r="C243" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D243" s="7"/>
-      <c r="E243" s="24"/>
-      <c r="F243" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G243" s="6" t="s">
+      <c r="A243" s="25"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D243" s="6"/>
+      <c r="E243" s="21"/>
+      <c r="F243" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G243" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I243" s="1" t="s">
@@ -8032,17 +8035,17 @@
       </c>
     </row>
     <row r="244" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="5"/>
-      <c r="B244" s="5"/>
-      <c r="C244" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D244" s="7"/>
-      <c r="E244" s="24"/>
-      <c r="F244" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G244" s="6" t="s">
+      <c r="A244" s="25"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D244" s="6"/>
+      <c r="E244" s="21"/>
+      <c r="F244" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G244" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I244" s="1" t="s">
@@ -8062,17 +8065,17 @@
       </c>
     </row>
     <row r="245" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="5"/>
-      <c r="B245" s="5"/>
-      <c r="C245" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D245" s="7"/>
-      <c r="E245" s="24"/>
-      <c r="F245" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G245" s="6" t="s">
+      <c r="A245" s="25"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D245" s="6"/>
+      <c r="E245" s="21"/>
+      <c r="F245" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G245" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I245" s="1" t="s">
@@ -8092,17 +8095,17 @@
       </c>
     </row>
     <row r="246" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="5"/>
-      <c r="B246" s="5"/>
-      <c r="C246" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D246" s="7"/>
-      <c r="E246" s="24"/>
-      <c r="F246" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G246" s="6" t="s">
+      <c r="A246" s="25"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D246" s="6"/>
+      <c r="E246" s="21"/>
+      <c r="F246" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G246" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I246" s="1" t="s">
@@ -8122,17 +8125,17 @@
       </c>
     </row>
     <row r="247" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="5"/>
-      <c r="B247" s="5"/>
-      <c r="C247" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D247" s="7"/>
-      <c r="E247" s="24"/>
-      <c r="F247" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G247" s="6" t="s">
+      <c r="A247" s="25"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D247" s="6"/>
+      <c r="E247" s="21"/>
+      <c r="F247" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G247" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I247" s="1" t="s">
@@ -8152,17 +8155,17 @@
       </c>
     </row>
     <row r="248" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="5"/>
-      <c r="B248" s="5"/>
-      <c r="C248" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D248" s="7"/>
-      <c r="E248" s="24"/>
-      <c r="F248" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G248" s="6" t="s">
+      <c r="A248" s="25"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D248" s="6"/>
+      <c r="E248" s="21"/>
+      <c r="F248" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G248" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I248" s="1" t="s">
@@ -8182,17 +8185,17 @@
       </c>
     </row>
     <row r="249" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="5"/>
-      <c r="B249" s="5"/>
-      <c r="C249" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D249" s="7"/>
-      <c r="E249" s="24"/>
-      <c r="F249" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G249" s="6" t="s">
+      <c r="A249" s="25"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D249" s="6"/>
+      <c r="E249" s="21"/>
+      <c r="F249" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G249" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I249" s="1" t="s">
@@ -8212,17 +8215,17 @@
       </c>
     </row>
     <row r="250" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="5"/>
-      <c r="B250" s="5"/>
-      <c r="C250" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D250" s="7"/>
-      <c r="E250" s="24"/>
-      <c r="F250" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G250" s="6" t="s">
+      <c r="A250" s="25"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D250" s="6"/>
+      <c r="E250" s="21"/>
+      <c r="F250" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G250" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I250" s="1" t="s">
@@ -8242,17 +8245,17 @@
       </c>
     </row>
     <row r="251" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="5"/>
-      <c r="B251" s="5"/>
-      <c r="C251" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D251" s="7"/>
-      <c r="E251" s="24"/>
-      <c r="F251" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G251" s="6" t="s">
+      <c r="A251" s="25"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" s="6"/>
+      <c r="E251" s="21"/>
+      <c r="F251" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G251" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I251" s="1" t="s">
@@ -8272,17 +8275,17 @@
       </c>
     </row>
     <row r="252" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="5"/>
-      <c r="B252" s="5"/>
-      <c r="C252" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D252" s="7"/>
-      <c r="E252" s="24"/>
-      <c r="F252" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G252" s="6" t="s">
+      <c r="A252" s="25"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" s="6"/>
+      <c r="E252" s="21"/>
+      <c r="F252" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G252" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I252" s="1" t="s">
@@ -8302,17 +8305,17 @@
       </c>
     </row>
     <row r="253" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="5"/>
-      <c r="B253" s="5"/>
-      <c r="C253" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D253" s="7"/>
-      <c r="E253" s="24"/>
-      <c r="F253" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G253" s="6" t="s">
+      <c r="A253" s="25"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" s="6"/>
+      <c r="E253" s="21"/>
+      <c r="F253" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G253" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I253" s="1" t="s">
@@ -8332,17 +8335,17 @@
       </c>
     </row>
     <row r="254" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="5"/>
-      <c r="B254" s="5"/>
-      <c r="C254" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D254" s="7"/>
-      <c r="E254" s="24"/>
-      <c r="F254" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G254" s="6" t="s">
+      <c r="A254" s="25"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254" s="6"/>
+      <c r="E254" s="21"/>
+      <c r="F254" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G254" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I254" s="1" t="s">
@@ -8362,17 +8365,17 @@
       </c>
     </row>
     <row r="255" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="5"/>
-      <c r="B255" s="5"/>
-      <c r="C255" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D255" s="7"/>
-      <c r="E255" s="24"/>
-      <c r="F255" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G255" s="6" t="s">
+      <c r="A255" s="25"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" s="6"/>
+      <c r="E255" s="21"/>
+      <c r="F255" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G255" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I255" s="1" t="s">
@@ -8392,17 +8395,17 @@
       </c>
     </row>
     <row r="256" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="5"/>
-      <c r="B256" s="5"/>
-      <c r="C256" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D256" s="7"/>
-      <c r="E256" s="24"/>
-      <c r="F256" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G256" s="6" t="s">
+      <c r="A256" s="25"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" s="6"/>
+      <c r="E256" s="21"/>
+      <c r="F256" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G256" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I256" s="1" t="s">
@@ -8422,17 +8425,17 @@
       </c>
     </row>
     <row r="257" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="5"/>
-      <c r="B257" s="5"/>
-      <c r="C257" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D257" s="7"/>
-      <c r="E257" s="24"/>
-      <c r="F257" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G257" s="6" t="s">
+      <c r="A257" s="25"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" s="6"/>
+      <c r="E257" s="21"/>
+      <c r="F257" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G257" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I257" s="1" t="s">
@@ -8452,17 +8455,17 @@
       </c>
     </row>
     <row r="258" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="5"/>
-      <c r="B258" s="5"/>
-      <c r="C258" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D258" s="7"/>
-      <c r="E258" s="24"/>
-      <c r="F258" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G258" s="6" t="s">
+      <c r="A258" s="25"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258" s="6"/>
+      <c r="E258" s="21"/>
+      <c r="F258" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G258" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I258" s="1" t="s">
@@ -8482,17 +8485,17 @@
       </c>
     </row>
     <row r="259" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="5"/>
-      <c r="B259" s="5"/>
-      <c r="C259" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D259" s="7"/>
-      <c r="E259" s="24"/>
-      <c r="F259" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G259" s="6" t="s">
+      <c r="A259" s="25"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" s="6"/>
+      <c r="E259" s="21"/>
+      <c r="F259" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G259" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I259" s="1" t="s">
@@ -8512,17 +8515,17 @@
       </c>
     </row>
     <row r="260" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="5"/>
-      <c r="B260" s="5"/>
-      <c r="C260" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D260" s="7"/>
-      <c r="E260" s="24"/>
-      <c r="F260" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G260" s="6" t="s">
+      <c r="A260" s="25"/>
+      <c r="B260" s="4"/>
+      <c r="C260" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" s="6"/>
+      <c r="E260" s="21"/>
+      <c r="F260" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G260" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I260" s="1" t="s">
@@ -8542,17 +8545,17 @@
       </c>
     </row>
     <row r="261" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="5"/>
-      <c r="B261" s="5"/>
-      <c r="C261" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D261" s="7"/>
-      <c r="E261" s="24"/>
-      <c r="F261" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G261" s="6" t="s">
+      <c r="A261" s="25"/>
+      <c r="B261" s="4"/>
+      <c r="C261" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" s="6"/>
+      <c r="E261" s="21"/>
+      <c r="F261" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G261" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I261" s="1" t="s">
@@ -8572,17 +8575,17 @@
       </c>
     </row>
     <row r="262" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="5"/>
-      <c r="B262" s="5"/>
-      <c r="C262" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D262" s="7"/>
-      <c r="E262" s="24"/>
-      <c r="F262" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G262" s="6" t="s">
+      <c r="A262" s="25"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" s="6"/>
+      <c r="E262" s="21"/>
+      <c r="F262" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G262" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I262" s="1" t="s">
@@ -8602,17 +8605,17 @@
       </c>
     </row>
     <row r="263" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="5"/>
-      <c r="B263" s="5"/>
-      <c r="C263" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D263" s="7"/>
-      <c r="E263" s="24"/>
-      <c r="F263" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G263" s="6" t="s">
+      <c r="A263" s="25"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263" s="6"/>
+      <c r="E263" s="21"/>
+      <c r="F263" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G263" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I263" s="1" t="s">
@@ -8632,17 +8635,17 @@
       </c>
     </row>
     <row r="264" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="5"/>
-      <c r="B264" s="5"/>
-      <c r="C264" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D264" s="7"/>
-      <c r="E264" s="24"/>
-      <c r="F264" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G264" s="6" t="s">
+      <c r="A264" s="25"/>
+      <c r="B264" s="4"/>
+      <c r="C264" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" s="6"/>
+      <c r="E264" s="21"/>
+      <c r="F264" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G264" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I264" s="1" t="s">
@@ -8662,17 +8665,17 @@
       </c>
     </row>
     <row r="265" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="5"/>
-      <c r="B265" s="5"/>
-      <c r="C265" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D265" s="7"/>
-      <c r="E265" s="24"/>
-      <c r="F265" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G265" s="6" t="s">
+      <c r="A265" s="25"/>
+      <c r="B265" s="4"/>
+      <c r="C265" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" s="6"/>
+      <c r="E265" s="21"/>
+      <c r="F265" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G265" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I265" s="1" t="s">
@@ -8692,17 +8695,17 @@
       </c>
     </row>
     <row r="266" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="5"/>
-      <c r="B266" s="5"/>
-      <c r="C266" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D266" s="7"/>
-      <c r="E266" s="24"/>
-      <c r="F266" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G266" s="6" t="s">
+      <c r="A266" s="25"/>
+      <c r="B266" s="4"/>
+      <c r="C266" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266" s="6"/>
+      <c r="E266" s="21"/>
+      <c r="F266" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G266" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I266" s="1" t="s">
@@ -8722,17 +8725,17 @@
       </c>
     </row>
     <row r="267" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="5"/>
-      <c r="B267" s="5"/>
-      <c r="C267" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D267" s="7"/>
-      <c r="E267" s="24"/>
-      <c r="F267" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G267" s="6" t="s">
+      <c r="A267" s="25"/>
+      <c r="B267" s="4"/>
+      <c r="C267" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267" s="6"/>
+      <c r="E267" s="21"/>
+      <c r="F267" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G267" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I267" s="1" t="s">
@@ -8752,17 +8755,17 @@
       </c>
     </row>
     <row r="268" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="5"/>
-      <c r="B268" s="5"/>
-      <c r="C268" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D268" s="7"/>
-      <c r="E268" s="24"/>
-      <c r="F268" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G268" s="6" t="s">
+      <c r="A268" s="25"/>
+      <c r="B268" s="4"/>
+      <c r="C268" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" s="6"/>
+      <c r="E268" s="21"/>
+      <c r="F268" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G268" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I268" s="1" t="s">
@@ -8782,17 +8785,17 @@
       </c>
     </row>
     <row r="269" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="5"/>
-      <c r="B269" s="5"/>
-      <c r="C269" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D269" s="7"/>
-      <c r="E269" s="24"/>
-      <c r="F269" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G269" s="6" t="s">
+      <c r="A269" s="25"/>
+      <c r="B269" s="4"/>
+      <c r="C269" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" s="6"/>
+      <c r="E269" s="21"/>
+      <c r="F269" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G269" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I269" s="1" t="s">
@@ -8812,17 +8815,17 @@
       </c>
     </row>
     <row r="270" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="5"/>
-      <c r="B270" s="5"/>
-      <c r="C270" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D270" s="7"/>
-      <c r="E270" s="24"/>
-      <c r="F270" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G270" s="6" t="s">
+      <c r="A270" s="25"/>
+      <c r="B270" s="4"/>
+      <c r="C270" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270" s="6"/>
+      <c r="E270" s="21"/>
+      <c r="F270" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G270" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I270" s="1" t="s">
@@ -8842,17 +8845,17 @@
       </c>
     </row>
     <row r="271" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="5"/>
-      <c r="B271" s="5"/>
-      <c r="C271" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D271" s="7"/>
-      <c r="E271" s="24"/>
-      <c r="F271" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G271" s="6" t="s">
+      <c r="A271" s="25"/>
+      <c r="B271" s="4"/>
+      <c r="C271" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271" s="6"/>
+      <c r="E271" s="21"/>
+      <c r="F271" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G271" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I271" s="1" t="s">
@@ -8872,17 +8875,17 @@
       </c>
     </row>
     <row r="272" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="5"/>
-      <c r="B272" s="5"/>
-      <c r="C272" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D272" s="7"/>
-      <c r="E272" s="24"/>
-      <c r="F272" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G272" s="6" t="s">
+      <c r="A272" s="25"/>
+      <c r="B272" s="4"/>
+      <c r="C272" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272" s="6"/>
+      <c r="E272" s="21"/>
+      <c r="F272" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G272" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I272" s="1" t="s">
@@ -8902,17 +8905,17 @@
       </c>
     </row>
     <row r="273" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="5"/>
-      <c r="B273" s="5"/>
-      <c r="C273" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D273" s="7"/>
-      <c r="E273" s="24"/>
-      <c r="F273" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G273" s="6" t="s">
+      <c r="A273" s="25"/>
+      <c r="B273" s="4"/>
+      <c r="C273" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D273" s="6"/>
+      <c r="E273" s="21"/>
+      <c r="F273" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G273" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I273" s="1" t="s">
@@ -8932,17 +8935,17 @@
       </c>
     </row>
     <row r="274" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="5"/>
-      <c r="B274" s="5"/>
-      <c r="C274" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D274" s="7"/>
-      <c r="E274" s="24"/>
-      <c r="F274" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G274" s="6" t="s">
+      <c r="A274" s="25"/>
+      <c r="B274" s="4"/>
+      <c r="C274" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274" s="6"/>
+      <c r="E274" s="21"/>
+      <c r="F274" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G274" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I274" s="1" t="s">
@@ -8962,17 +8965,17 @@
       </c>
     </row>
     <row r="275" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="5"/>
-      <c r="B275" s="5"/>
-      <c r="C275" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D275" s="7"/>
-      <c r="E275" s="24"/>
-      <c r="F275" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G275" s="6" t="s">
+      <c r="A275" s="25"/>
+      <c r="B275" s="4"/>
+      <c r="C275" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275" s="6"/>
+      <c r="E275" s="21"/>
+      <c r="F275" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G275" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I275" s="1" t="s">
@@ -8992,17 +8995,17 @@
       </c>
     </row>
     <row r="276" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="5"/>
-      <c r="B276" s="5"/>
-      <c r="C276" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D276" s="7"/>
-      <c r="E276" s="24"/>
-      <c r="F276" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G276" s="6" t="s">
+      <c r="A276" s="25"/>
+      <c r="B276" s="4"/>
+      <c r="C276" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276" s="6"/>
+      <c r="E276" s="21"/>
+      <c r="F276" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G276" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I276" s="1" t="s">
@@ -9022,17 +9025,17 @@
       </c>
     </row>
     <row r="277" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="5"/>
-      <c r="B277" s="5"/>
-      <c r="C277" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D277" s="7"/>
-      <c r="E277" s="24"/>
-      <c r="F277" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G277" s="6" t="s">
+      <c r="A277" s="25"/>
+      <c r="B277" s="4"/>
+      <c r="C277" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" s="6"/>
+      <c r="E277" s="21"/>
+      <c r="F277" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G277" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I277" s="1" t="s">
@@ -9052,17 +9055,17 @@
       </c>
     </row>
     <row r="278" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="5"/>
-      <c r="B278" s="5"/>
-      <c r="C278" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D278" s="7"/>
-      <c r="E278" s="24"/>
-      <c r="F278" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G278" s="6" t="s">
+      <c r="A278" s="25"/>
+      <c r="B278" s="4"/>
+      <c r="C278" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" s="6"/>
+      <c r="E278" s="21"/>
+      <c r="F278" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G278" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I278" s="1" t="s">
@@ -9082,17 +9085,17 @@
       </c>
     </row>
     <row r="279" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="5"/>
-      <c r="B279" s="5"/>
-      <c r="C279" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D279" s="7"/>
-      <c r="E279" s="24"/>
-      <c r="F279" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G279" s="6" t="s">
+      <c r="A279" s="25"/>
+      <c r="B279" s="4"/>
+      <c r="C279" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279" s="6"/>
+      <c r="E279" s="21"/>
+      <c r="F279" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G279" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I279" s="1" t="s">
@@ -9112,17 +9115,17 @@
       </c>
     </row>
     <row r="280" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="5"/>
-      <c r="B280" s="5"/>
-      <c r="C280" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D280" s="7"/>
-      <c r="E280" s="24"/>
-      <c r="F280" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G280" s="6" t="s">
+      <c r="A280" s="25"/>
+      <c r="B280" s="4"/>
+      <c r="C280" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280" s="6"/>
+      <c r="E280" s="21"/>
+      <c r="F280" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G280" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I280" s="1" t="s">
@@ -9142,17 +9145,17 @@
       </c>
     </row>
     <row r="281" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="5"/>
-      <c r="B281" s="5"/>
-      <c r="C281" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D281" s="7"/>
-      <c r="E281" s="24"/>
-      <c r="F281" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G281" s="6" t="s">
+      <c r="A281" s="25"/>
+      <c r="B281" s="4"/>
+      <c r="C281" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" s="6"/>
+      <c r="E281" s="21"/>
+      <c r="F281" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G281" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I281" s="1" t="s">
@@ -9172,17 +9175,17 @@
       </c>
     </row>
     <row r="282" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="5"/>
-      <c r="B282" s="5"/>
-      <c r="C282" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D282" s="7"/>
-      <c r="E282" s="24"/>
-      <c r="F282" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G282" s="6" t="s">
+      <c r="A282" s="25"/>
+      <c r="B282" s="4"/>
+      <c r="C282" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" s="6"/>
+      <c r="E282" s="21"/>
+      <c r="F282" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G282" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I282" s="1" t="s">
@@ -9202,17 +9205,17 @@
       </c>
     </row>
     <row r="283" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="5"/>
-      <c r="B283" s="5"/>
-      <c r="C283" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D283" s="7"/>
-      <c r="E283" s="24"/>
-      <c r="F283" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G283" s="6" t="s">
+      <c r="A283" s="25"/>
+      <c r="B283" s="4"/>
+      <c r="C283" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" s="6"/>
+      <c r="E283" s="21"/>
+      <c r="F283" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G283" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I283" s="1" t="s">
@@ -9232,17 +9235,17 @@
       </c>
     </row>
     <row r="284" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="5"/>
-      <c r="B284" s="5"/>
-      <c r="C284" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D284" s="7"/>
-      <c r="E284" s="24"/>
-      <c r="F284" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G284" s="6" t="s">
+      <c r="A284" s="25"/>
+      <c r="B284" s="4"/>
+      <c r="C284" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" s="6"/>
+      <c r="E284" s="21"/>
+      <c r="F284" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G284" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I284" s="1" t="s">
@@ -9262,17 +9265,17 @@
       </c>
     </row>
     <row r="285" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="5"/>
-      <c r="B285" s="5"/>
-      <c r="C285" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D285" s="7"/>
-      <c r="E285" s="24"/>
-      <c r="F285" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G285" s="6" t="s">
+      <c r="A285" s="25"/>
+      <c r="B285" s="4"/>
+      <c r="C285" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" s="6"/>
+      <c r="E285" s="21"/>
+      <c r="F285" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G285" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I285" s="1" t="s">
@@ -9292,17 +9295,17 @@
       </c>
     </row>
     <row r="286" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="5"/>
-      <c r="B286" s="5"/>
-      <c r="C286" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D286" s="7"/>
-      <c r="E286" s="24"/>
-      <c r="F286" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G286" s="6" t="s">
+      <c r="A286" s="25"/>
+      <c r="B286" s="4"/>
+      <c r="C286" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286" s="6"/>
+      <c r="E286" s="21"/>
+      <c r="F286" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G286" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I286" s="1" t="s">
@@ -9322,17 +9325,17 @@
       </c>
     </row>
     <row r="287" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="5"/>
-      <c r="B287" s="5"/>
-      <c r="C287" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D287" s="7"/>
-      <c r="E287" s="24"/>
-      <c r="F287" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G287" s="6" t="s">
+      <c r="A287" s="25"/>
+      <c r="B287" s="4"/>
+      <c r="C287" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287" s="6"/>
+      <c r="E287" s="21"/>
+      <c r="F287" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G287" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I287" s="1" t="s">
@@ -9352,17 +9355,17 @@
       </c>
     </row>
     <row r="288" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="5"/>
-      <c r="B288" s="5"/>
-      <c r="C288" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D288" s="7"/>
-      <c r="E288" s="24"/>
-      <c r="F288" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G288" s="6" t="s">
+      <c r="A288" s="25"/>
+      <c r="B288" s="4"/>
+      <c r="C288" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" s="6"/>
+      <c r="E288" s="21"/>
+      <c r="F288" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G288" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I288" s="1" t="s">
@@ -9382,17 +9385,17 @@
       </c>
     </row>
     <row r="289" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="5"/>
-      <c r="B289" s="5"/>
-      <c r="C289" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D289" s="7"/>
-      <c r="E289" s="24"/>
-      <c r="F289" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G289" s="6" t="s">
+      <c r="A289" s="25"/>
+      <c r="B289" s="4"/>
+      <c r="C289" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" s="6"/>
+      <c r="E289" s="21"/>
+      <c r="F289" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G289" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I289" s="1" t="s">
@@ -9412,17 +9415,17 @@
       </c>
     </row>
     <row r="290" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="5"/>
-      <c r="B290" s="5"/>
-      <c r="C290" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D290" s="7"/>
-      <c r="E290" s="24"/>
-      <c r="F290" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G290" s="6" t="s">
+      <c r="A290" s="25"/>
+      <c r="B290" s="4"/>
+      <c r="C290" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" s="6"/>
+      <c r="E290" s="21"/>
+      <c r="F290" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G290" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I290" s="1" t="s">
@@ -9442,17 +9445,17 @@
       </c>
     </row>
     <row r="291" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="5"/>
-      <c r="B291" s="5"/>
-      <c r="C291" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D291" s="7"/>
-      <c r="E291" s="24"/>
-      <c r="F291" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G291" s="6" t="s">
+      <c r="A291" s="25"/>
+      <c r="B291" s="4"/>
+      <c r="C291" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291" s="6"/>
+      <c r="E291" s="21"/>
+      <c r="F291" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G291" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I291" s="1" t="s">
@@ -9472,17 +9475,17 @@
       </c>
     </row>
     <row r="292" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="5"/>
-      <c r="B292" s="5"/>
-      <c r="C292" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D292" s="7"/>
-      <c r="E292" s="24"/>
-      <c r="F292" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G292" s="6" t="s">
+      <c r="A292" s="25"/>
+      <c r="B292" s="4"/>
+      <c r="C292" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" s="6"/>
+      <c r="E292" s="21"/>
+      <c r="F292" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G292" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I292" s="1" t="s">
@@ -9502,17 +9505,17 @@
       </c>
     </row>
     <row r="293" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="5"/>
-      <c r="B293" s="5"/>
-      <c r="C293" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D293" s="7"/>
-      <c r="E293" s="24"/>
-      <c r="F293" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G293" s="6" t="s">
+      <c r="A293" s="25"/>
+      <c r="B293" s="4"/>
+      <c r="C293" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293" s="6"/>
+      <c r="E293" s="21"/>
+      <c r="F293" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G293" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I293" s="1" t="s">
@@ -9532,17 +9535,17 @@
       </c>
     </row>
     <row r="294" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="5"/>
-      <c r="B294" s="5"/>
-      <c r="C294" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D294" s="7"/>
-      <c r="E294" s="24"/>
-      <c r="F294" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G294" s="6" t="s">
+      <c r="A294" s="25"/>
+      <c r="B294" s="4"/>
+      <c r="C294" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D294" s="6"/>
+      <c r="E294" s="21"/>
+      <c r="F294" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G294" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I294" s="1" t="s">
@@ -9562,17 +9565,17 @@
       </c>
     </row>
     <row r="295" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="5"/>
-      <c r="B295" s="5"/>
-      <c r="C295" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D295" s="7"/>
-      <c r="E295" s="24"/>
-      <c r="F295" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G295" s="6" t="s">
+      <c r="A295" s="25"/>
+      <c r="B295" s="4"/>
+      <c r="C295" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" s="6"/>
+      <c r="E295" s="21"/>
+      <c r="F295" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G295" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I295" s="1" t="s">
@@ -9592,17 +9595,17 @@
       </c>
     </row>
     <row r="296" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="5"/>
-      <c r="B296" s="5"/>
-      <c r="C296" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D296" s="7"/>
-      <c r="E296" s="24"/>
-      <c r="F296" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G296" s="6" t="s">
+      <c r="A296" s="25"/>
+      <c r="B296" s="4"/>
+      <c r="C296" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296" s="6"/>
+      <c r="E296" s="21"/>
+      <c r="F296" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G296" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I296" s="1" t="s">
@@ -9622,17 +9625,17 @@
       </c>
     </row>
     <row r="297" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="5"/>
-      <c r="B297" s="5"/>
-      <c r="C297" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D297" s="7"/>
-      <c r="E297" s="24"/>
-      <c r="F297" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G297" s="6" t="s">
+      <c r="A297" s="25"/>
+      <c r="B297" s="4"/>
+      <c r="C297" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" s="6"/>
+      <c r="E297" s="21"/>
+      <c r="F297" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G297" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I297" s="1" t="s">
@@ -9652,17 +9655,17 @@
       </c>
     </row>
     <row r="298" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="5"/>
-      <c r="B298" s="5"/>
-      <c r="C298" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D298" s="7"/>
-      <c r="E298" s="24"/>
-      <c r="F298" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G298" s="6" t="s">
+      <c r="A298" s="25"/>
+      <c r="B298" s="4"/>
+      <c r="C298" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298" s="6"/>
+      <c r="E298" s="21"/>
+      <c r="F298" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G298" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I298" s="1" t="s">
@@ -9682,17 +9685,17 @@
       </c>
     </row>
     <row r="299" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="5"/>
-      <c r="B299" s="5"/>
-      <c r="C299" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D299" s="7"/>
-      <c r="E299" s="24"/>
-      <c r="F299" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G299" s="6" t="s">
+      <c r="A299" s="25"/>
+      <c r="B299" s="4"/>
+      <c r="C299" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299" s="6"/>
+      <c r="E299" s="21"/>
+      <c r="F299" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G299" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I299" s="1" t="s">
@@ -9712,17 +9715,17 @@
       </c>
     </row>
     <row r="300" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="5"/>
-      <c r="B300" s="5"/>
-      <c r="C300" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D300" s="7"/>
-      <c r="E300" s="24"/>
-      <c r="F300" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G300" s="6" t="s">
+      <c r="A300" s="25"/>
+      <c r="B300" s="4"/>
+      <c r="C300" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" s="6"/>
+      <c r="E300" s="21"/>
+      <c r="F300" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G300" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I300" s="1" t="s">
@@ -9742,17 +9745,17 @@
       </c>
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A301" s="17"/>
-      <c r="B301" s="18"/>
-      <c r="C301" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D301" s="20"/>
-      <c r="E301" s="25"/>
-      <c r="F301" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G301" s="6" t="s">
+      <c r="A301" s="26"/>
+      <c r="B301" s="16"/>
+      <c r="C301" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301" s="18"/>
+      <c r="E301" s="22"/>
+      <c r="F301" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G301" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I301" s="1" t="s">
@@ -9772,11 +9775,11 @@
       </c>
     </row>
     <row r="302" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B302" s="19"/>
-      <c r="C302" s="19"/>
-      <c r="E302" s="19"/>
-      <c r="F302" s="19"/>
-      <c r="G302" s="19"/>
+      <c r="B302" s="17"/>
+      <c r="C302" s="17"/>
+      <c r="E302" s="17"/>
+      <c r="F302" s="17"/>
+      <c r="G302" s="17"/>
       <c r="I302" s="1" t="s">
         <v>0</v>
       </c>
